--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1811767299510052</v>
+        <v>0.1811767299509768</v>
       </c>
       <c r="D2">
-        <v>0.4097030898032301</v>
+        <v>0.4097030898030027</v>
       </c>
       <c r="E2">
-        <v>0.1490479731995507</v>
+        <v>0.14904797319954</v>
       </c>
       <c r="F2">
-        <v>8.111609091534234</v>
+        <v>8.111609091534376</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.67077704370098</v>
+        <v>9.670777043701065</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.198434571802935</v>
+        <v>5.198434571802949</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1498997963644086</v>
+        <v>0.1498997963638402</v>
       </c>
       <c r="D3">
-        <v>0.3271798710426737</v>
+        <v>0.3271798710426168</v>
       </c>
       <c r="E3">
-        <v>0.1287994476647825</v>
+        <v>0.1287994476647398</v>
       </c>
       <c r="F3">
-        <v>6.625940385751079</v>
+        <v>6.62594038575125</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.113949994271735</v>
+        <v>8.113949994271763</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1323303570465555</v>
+        <v>0.1323303570467402</v>
       </c>
       <c r="D4">
-        <v>0.2837182233655255</v>
+        <v>0.2837182233655113</v>
       </c>
       <c r="E4">
-        <v>0.1168803410177723</v>
+        <v>0.1168803410178256</v>
       </c>
       <c r="F4">
-        <v>5.818757231902424</v>
+        <v>5.818757231902453</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.868606597264517</v>
+        <v>3.868606597264559</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.12547473026288</v>
+        <v>0.1254747302631927</v>
       </c>
       <c r="D5">
-        <v>0.2673563909563086</v>
+        <v>0.2673563909560954</v>
       </c>
       <c r="E5">
-        <v>0.1121123444727274</v>
+        <v>0.1121123444727488</v>
       </c>
       <c r="F5">
         <v>5.509548805315092</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.678447932821413</v>
+        <v>3.678447932821442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1243522528857426</v>
+        <v>0.124352252885231</v>
       </c>
       <c r="D6">
-        <v>0.2647103838724405</v>
+        <v>0.264710383872341</v>
       </c>
       <c r="E6">
-        <v>0.1113251061797236</v>
+        <v>0.1113251061797094</v>
       </c>
       <c r="F6">
-        <v>5.459242375686699</v>
+        <v>5.459242375686557</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.812303667395156</v>
+        <v>6.812303667394985</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.647226877621435</v>
+        <v>3.647226877621392</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1322367839775751</v>
+        <v>0.1322367839782714</v>
       </c>
       <c r="D7">
-        <v>0.283492596215396</v>
+        <v>0.2834925962151971</v>
       </c>
       <c r="E7">
-        <v>0.1168157194381756</v>
+        <v>0.116815719438172</v>
       </c>
       <c r="F7">
-        <v>5.814514469186321</v>
+        <v>5.814514469186378</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.217040959370138</v>
+        <v>7.217040959370223</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.866017151282492</v>
+        <v>3.86601715128252</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.169975231040695</v>
+        <v>0.1699752310406097</v>
       </c>
       <c r="D8">
-        <v>0.3794138609476221</v>
+        <v>0.3794138609477358</v>
       </c>
       <c r="E8">
-        <v>0.1419299857724639</v>
+        <v>0.1419299857725065</v>
       </c>
       <c r="F8">
-        <v>7.57267715833504</v>
+        <v>7.572677158335296</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.117676414140476</v>
+        <v>9.117676414140618</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.897246744005898</v>
+        <v>4.897246744005997</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2655508653677714</v>
+        <v>0.2655508653673309</v>
       </c>
       <c r="D9">
-        <v>0.6625924016165641</v>
+        <v>0.6625924016161662</v>
       </c>
       <c r="E9">
-        <v>0.1986881355172265</v>
+        <v>0.1986881355172478</v>
       </c>
       <c r="F9">
-        <v>12.39399519800796</v>
+        <v>12.39399519800787</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.68799329350801</v>
+        <v>13.68799329350799</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.398546923012617</v>
+        <v>7.398546923012589</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D10">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E10">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F10">
         <v>19.04909714881921</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D11">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E11">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F11">
         <v>19.04909714881921</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D12">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E12">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F12">
         <v>19.04909714881921</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D13">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E13">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F13">
         <v>19.04909714881921</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D14">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E14">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F14">
         <v>19.04909714881921</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D15">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E15">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F15">
         <v>19.04909714881921</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D16">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E16">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F16">
         <v>19.04909714881921</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D17">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E17">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F17">
         <v>19.04909714881921</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D18">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E18">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F18">
         <v>19.04909714881921</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D19">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E19">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F19">
         <v>19.04909714881921</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D20">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E20">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F20">
         <v>19.04909714881921</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D21">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E21">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F21">
         <v>19.04909714881921</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D22">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E22">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F22">
         <v>19.04909714881921</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D23">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E23">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F23">
         <v>19.04909714881921</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D24">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E24">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F24">
         <v>19.04909714881921</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3847861591925721</v>
+        <v>0.3847861591928137</v>
       </c>
       <c r="D25">
-        <v>1.091226325916836</v>
+        <v>1.091226325917006</v>
       </c>
       <c r="E25">
-        <v>0.261205544463369</v>
+        <v>0.2612055444633583</v>
       </c>
       <c r="F25">
         <v>19.04909714881921</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.95031940490207</v>
+        <v>18.95031940490196</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.30370501941573</v>
+        <v>10.3037050194157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1811767299509768</v>
+        <v>0.1811767299510052</v>
       </c>
       <c r="D2">
-        <v>0.4097030898030027</v>
+        <v>0.4097030898032301</v>
       </c>
       <c r="E2">
-        <v>0.14904797319954</v>
+        <v>0.1490479731995507</v>
       </c>
       <c r="F2">
-        <v>8.111609091534376</v>
+        <v>8.111609091534234</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.670777043701065</v>
+        <v>9.67077704370098</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.198434571802949</v>
+        <v>5.198434571802935</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1498997963638402</v>
+        <v>0.1498997963644086</v>
       </c>
       <c r="D3">
-        <v>0.3271798710426168</v>
+        <v>0.3271798710426737</v>
       </c>
       <c r="E3">
-        <v>0.1287994476647398</v>
+        <v>0.1287994476647825</v>
       </c>
       <c r="F3">
-        <v>6.62594038575125</v>
+        <v>6.625940385751079</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.113949994271763</v>
+        <v>8.113949994271735</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1323303570467402</v>
+        <v>0.1323303570465555</v>
       </c>
       <c r="D4">
-        <v>0.2837182233655113</v>
+        <v>0.2837182233655255</v>
       </c>
       <c r="E4">
-        <v>0.1168803410178256</v>
+        <v>0.1168803410177723</v>
       </c>
       <c r="F4">
-        <v>5.818757231902453</v>
+        <v>5.818757231902424</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.868606597264559</v>
+        <v>3.868606597264517</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1254747302631927</v>
+        <v>0.12547473026288</v>
       </c>
       <c r="D5">
-        <v>0.2673563909560954</v>
+        <v>0.2673563909563086</v>
       </c>
       <c r="E5">
-        <v>0.1121123444727488</v>
+        <v>0.1121123444727274</v>
       </c>
       <c r="F5">
         <v>5.509548805315092</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.678447932821442</v>
+        <v>3.678447932821413</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.124352252885231</v>
+        <v>0.1243522528857426</v>
       </c>
       <c r="D6">
-        <v>0.264710383872341</v>
+        <v>0.2647103838724405</v>
       </c>
       <c r="E6">
-        <v>0.1113251061797094</v>
+        <v>0.1113251061797236</v>
       </c>
       <c r="F6">
-        <v>5.459242375686557</v>
+        <v>5.459242375686699</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.812303667394985</v>
+        <v>6.812303667395156</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.647226877621392</v>
+        <v>3.647226877621435</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1322367839782714</v>
+        <v>0.1322367839775751</v>
       </c>
       <c r="D7">
-        <v>0.2834925962151971</v>
+        <v>0.283492596215396</v>
       </c>
       <c r="E7">
-        <v>0.116815719438172</v>
+        <v>0.1168157194381756</v>
       </c>
       <c r="F7">
-        <v>5.814514469186378</v>
+        <v>5.814514469186321</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.217040959370223</v>
+        <v>7.217040959370138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.86601715128252</v>
+        <v>3.866017151282492</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1699752310406097</v>
+        <v>0.169975231040695</v>
       </c>
       <c r="D8">
-        <v>0.3794138609477358</v>
+        <v>0.3794138609476221</v>
       </c>
       <c r="E8">
-        <v>0.1419299857725065</v>
+        <v>0.1419299857724639</v>
       </c>
       <c r="F8">
-        <v>7.572677158335296</v>
+        <v>7.57267715833504</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.117676414140618</v>
+        <v>9.117676414140476</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.897246744005997</v>
+        <v>4.897246744005898</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2655508653673309</v>
+        <v>0.2655508653677714</v>
       </c>
       <c r="D9">
-        <v>0.6625924016161662</v>
+        <v>0.6625924016165641</v>
       </c>
       <c r="E9">
-        <v>0.1986881355172478</v>
+        <v>0.1986881355172265</v>
       </c>
       <c r="F9">
-        <v>12.39399519800787</v>
+        <v>12.39399519800796</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.68799329350799</v>
+        <v>13.68799329350801</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.398546923012589</v>
+        <v>7.398546923012617</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D10">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E10">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F10">
         <v>19.04909714881921</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D11">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E11">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F11">
         <v>19.04909714881921</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D12">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E12">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F12">
         <v>19.04909714881921</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D13">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E13">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F13">
         <v>19.04909714881921</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D14">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E14">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F14">
         <v>19.04909714881921</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D15">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E15">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F15">
         <v>19.04909714881921</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D16">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E16">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F16">
         <v>19.04909714881921</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D17">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E17">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F17">
         <v>19.04909714881921</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D18">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E18">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F18">
         <v>19.04909714881921</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D19">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E19">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F19">
         <v>19.04909714881921</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D20">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E20">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F20">
         <v>19.04909714881921</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D21">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E21">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F21">
         <v>19.04909714881921</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D22">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E22">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F22">
         <v>19.04909714881921</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D23">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E23">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F23">
         <v>19.04909714881921</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D24">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E24">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F24">
         <v>19.04909714881921</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3847861591928137</v>
+        <v>0.3847861591925721</v>
       </c>
       <c r="D25">
-        <v>1.091226325917006</v>
+        <v>1.091226325916836</v>
       </c>
       <c r="E25">
-        <v>0.2612055444633583</v>
+        <v>0.261205544463369</v>
       </c>
       <c r="F25">
         <v>19.04909714881921</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.95031940490196</v>
+        <v>18.95031940490207</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.3037050194157</v>
+        <v>10.30370501941573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1811767299510052</v>
+        <v>0.1791698459917228</v>
       </c>
       <c r="D2">
-        <v>0.4097030898032301</v>
+        <v>0.4010065057351113</v>
       </c>
       <c r="E2">
-        <v>0.1490479731995507</v>
+        <v>0.144739255306007</v>
       </c>
       <c r="F2">
-        <v>8.111609091534234</v>
+        <v>7.996441836543994</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006405335993293835</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.67077704370098</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.559784552795605</v>
       </c>
       <c r="L2">
-        <v>5.198434571802935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5.144584253752811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1498997963644086</v>
+        <v>0.1483488576657095</v>
       </c>
       <c r="D3">
-        <v>0.3271798710426737</v>
+        <v>0.3215901473605811</v>
       </c>
       <c r="E3">
-        <v>0.1287994476647825</v>
+        <v>0.1248596226867242</v>
       </c>
       <c r="F3">
-        <v>6.625940385751079</v>
+        <v>6.548539928667793</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006708444880141217</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.113949994271735</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.025812162348331</v>
       </c>
       <c r="L3">
-        <v>4.351901075582717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.309903943075327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1323303570465555</v>
+        <v>0.1310101265483894</v>
       </c>
       <c r="D4">
-        <v>0.2837182233655255</v>
+        <v>0.2797962065529447</v>
       </c>
       <c r="E4">
-        <v>0.1168803410177723</v>
+        <v>0.1131355513222374</v>
       </c>
       <c r="F4">
-        <v>5.818757231902424</v>
+        <v>5.761307103800334</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006888402547189053</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.221827833634762</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.14584273020543</v>
       </c>
       <c r="L4">
-        <v>3.868606597264517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.83285870967984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.12547473026288</v>
+        <v>0.1242402801778297</v>
       </c>
       <c r="D5">
-        <v>0.2673563909563086</v>
+        <v>0.2640749103928499</v>
       </c>
       <c r="E5">
-        <v>0.1121123444727274</v>
+        <v>0.1084417941017577</v>
       </c>
       <c r="F5">
-        <v>5.509548805315092</v>
+        <v>5.459696797079431</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006960856570179979</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.87009328448994</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.798753077301114</v>
       </c>
       <c r="L5">
-        <v>3.678447932821413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.645077751262008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1243522528857426</v>
+        <v>0.1231316359512391</v>
       </c>
       <c r="D6">
-        <v>0.2647103838724405</v>
+        <v>0.2615333528314636</v>
       </c>
       <c r="E6">
-        <v>0.1113251061797236</v>
+        <v>0.107666623249429</v>
       </c>
       <c r="F6">
-        <v>5.459242375686699</v>
+        <v>5.41062585802004</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006972849810691348</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.812303667395156</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.741719646628923</v>
       </c>
       <c r="L6">
-        <v>3.647226877621435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.614243194231733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1322367839775751</v>
+        <v>0.1309177395813634</v>
       </c>
       <c r="D7">
-        <v>0.283492596215396</v>
+        <v>0.2795793548750254</v>
       </c>
       <c r="E7">
-        <v>0.1168157194381756</v>
+        <v>0.1130719495028494</v>
       </c>
       <c r="F7">
-        <v>5.814514469186321</v>
+        <v>5.757168683928938</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000688938252916443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.217040959370138</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.14111957912607</v>
       </c>
       <c r="L7">
-        <v>3.866017151282492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.830301925065072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.169975231040695</v>
+        <v>0.1681390284638553</v>
       </c>
       <c r="D8">
-        <v>0.3794138609476221</v>
+        <v>0.3718548842793012</v>
       </c>
       <c r="E8">
-        <v>0.1419299857724639</v>
+        <v>0.1377570736237779</v>
       </c>
       <c r="F8">
-        <v>7.57267715833504</v>
+        <v>7.471424607319506</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006511608849098092</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.117676414140476</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.015083616947521</v>
       </c>
       <c r="L8">
-        <v>4.897246744005898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.84776707956199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2655508653677714</v>
+        <v>0.2618714752618132</v>
       </c>
       <c r="D9">
-        <v>0.6625924016165641</v>
+        <v>0.6437766977113597</v>
       </c>
       <c r="E9">
-        <v>0.1986881355172265</v>
+        <v>0.1931481591999038</v>
       </c>
       <c r="F9">
-        <v>12.39399519800796</v>
+        <v>12.15150196432668</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005669095522963174</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.68799329350801</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.5008884739598</v>
       </c>
       <c r="L9">
-        <v>7.398546923012617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7.304506581262785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D10">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E10">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F10">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L10">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D11">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E11">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F11">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L11">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D12">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E12">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F12">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L12">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D13">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E13">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F13">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L13">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D14">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E14">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F14">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L14">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D15">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E15">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F15">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L15">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D16">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E16">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F16">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L16">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D17">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E17">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F17">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L17">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D18">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E18">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F18">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L18">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D19">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E19">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F19">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L19">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D20">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E20">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F20">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L20">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D21">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E21">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F21">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L21">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D22">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E22">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F22">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L22">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D23">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E23">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F23">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L23">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D24">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E24">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F24">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L24">
-        <v>10.30370501941573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10.09216769254064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3847861591925721</v>
+        <v>0.3757520065387183</v>
       </c>
       <c r="D25">
-        <v>1.091226325916836</v>
+        <v>1.044551367205798</v>
       </c>
       <c r="E25">
-        <v>0.261205544463369</v>
+        <v>0.2522168970577177</v>
       </c>
       <c r="F25">
-        <v>19.04909714881921</v>
+        <v>18.43925931244718</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004778087398504157</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.95031940490207</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.54571717872548</v>
       </c>
       <c r="L25">
-        <v>10.30370501941573</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>10.09216769254064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -424,158 +424,1124 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2382106838612543</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1205107893085682</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06886326703668111</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.6161900824442696</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3647456210124886</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3292333823810054</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06705017778532785</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.619416322817642</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04966079422922043</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7724355836211814</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.409754445262081</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2212444492663934</v>
+      </c>
+      <c r="D3">
+        <v>0.1096852974836295</v>
+      </c>
+      <c r="E3">
+        <v>0.06702138897664867</v>
+      </c>
+      <c r="F3">
+        <v>0.6145245843193976</v>
+      </c>
+      <c r="G3">
+        <v>0.3672485292069823</v>
+      </c>
+      <c r="H3">
+        <v>0.3381409922941288</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.06905751224546286</v>
+      </c>
+      <c r="K3">
+        <v>3.15117686182208</v>
+      </c>
+      <c r="L3">
+        <v>0.05045350608575028</v>
+      </c>
+      <c r="M3">
+        <v>0.6746614777507531</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.433262535490812</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.211107312174093</v>
+      </c>
+      <c r="D4">
+        <v>0.1031038477153103</v>
+      </c>
+      <c r="E4">
+        <v>0.06597482649719488</v>
+      </c>
+      <c r="F4">
+        <v>0.6150566091702814</v>
+      </c>
+      <c r="G4">
+        <v>0.3700538114850573</v>
+      </c>
+      <c r="H4">
+        <v>0.3443734861907615</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.07041023025476356</v>
+      </c>
+      <c r="K4">
+        <v>2.863682000239777</v>
+      </c>
+      <c r="L4">
+        <v>0.05098785764112712</v>
+      </c>
+      <c r="M4">
+        <v>0.6147206518605088</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.451972565184505</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2070431822429697</v>
+      </c>
+      <c r="D5">
+        <v>0.1004372396754647</v>
+      </c>
+      <c r="E5">
+        <v>0.06556884739896951</v>
+      </c>
+      <c r="F5">
+        <v>0.6156482893483428</v>
+      </c>
+      <c r="G5">
+        <v>0.3715013697722043</v>
+      </c>
+      <c r="H5">
+        <v>0.3470986940879612</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.07099090039075762</v>
+      </c>
+      <c r="K5">
+        <v>2.746495768708513</v>
+      </c>
+      <c r="L5">
+        <v>0.0512174092547486</v>
+      </c>
+      <c r="M5">
+        <v>0.590310372587318</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.46062774193085</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.2063722707390241</v>
+      </c>
+      <c r="D6">
+        <v>0.09999535060445197</v>
+      </c>
+      <c r="E6">
+        <v>0.06550265315868309</v>
+      </c>
+      <c r="F6">
+        <v>0.6157687235638605</v>
+      </c>
+      <c r="G6">
+        <v>0.3717597059264008</v>
+      </c>
+      <c r="H6">
+        <v>0.3475622273122241</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.07108907480302129</v>
+      </c>
+      <c r="K6">
+        <v>2.727034417174821</v>
+      </c>
+      <c r="L6">
+        <v>0.05125623375114863</v>
+      </c>
+      <c r="M6">
+        <v>0.5862578335513575</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.462125915195188</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.2110522359394906</v>
+      </c>
+      <c r="D7">
+        <v>0.1030678239792238</v>
+      </c>
+      <c r="E7">
+        <v>0.0659692692148024</v>
+      </c>
+      <c r="F7">
+        <v>0.6150630915912387</v>
+      </c>
+      <c r="G7">
+        <v>0.3700721201118853</v>
+      </c>
+      <c r="H7">
+        <v>0.3444094969129807</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.07041794325878037</v>
+      </c>
+      <c r="K7">
+        <v>2.862101745864038</v>
+      </c>
+      <c r="L7">
+        <v>0.0509909059076481</v>
+      </c>
+      <c r="M7">
+        <v>0.6143913903741804</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.452085176054297</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.2323003295540786</v>
+      </c>
+      <c r="D8">
+        <v>0.1167639095028221</v>
+      </c>
+      <c r="E8">
+        <v>0.06821024102270279</v>
+      </c>
+      <c r="F8">
+        <v>0.6152832554149015</v>
+      </c>
+      <c r="G8">
+        <v>0.3653363566580694</v>
+      </c>
+      <c r="H8">
+        <v>0.332142325288693</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.06771686497535967</v>
+      </c>
+      <c r="K8">
+        <v>3.457946445617949</v>
+      </c>
+      <c r="L8">
+        <v>0.0499241286116785</v>
+      </c>
+      <c r="M8">
+        <v>0.7386992463840869</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.416945103909697</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2763656202348841</v>
+      </c>
+      <c r="D9">
+        <v>0.1441939540323602</v>
+      </c>
+      <c r="E9">
+        <v>0.07330811438990636</v>
+      </c>
+      <c r="F9">
+        <v>0.6288132362829799</v>
+      </c>
+      <c r="G9">
+        <v>0.3668070512844679</v>
+      </c>
+      <c r="H9">
+        <v>0.3144498969840299</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.06341169959518922</v>
+      </c>
+      <c r="K9">
+        <v>4.628025193257713</v>
+      </c>
+      <c r="L9">
+        <v>0.04821837937879714</v>
+      </c>
+      <c r="M9">
+        <v>0.9835676578348469</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.384077339025481</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.3104621743580935</v>
+      </c>
+      <c r="D10">
+        <v>0.1647757189900148</v>
+      </c>
+      <c r="E10">
+        <v>0.07753267690390331</v>
+      </c>
+      <c r="F10">
+        <v>0.6478608187665955</v>
+      </c>
+      <c r="G10">
+        <v>0.3754638754288635</v>
+      </c>
+      <c r="H10">
+        <v>0.3057828492690788</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.06090867701998803</v>
+      </c>
+      <c r="K10">
+        <v>5.491130947369129</v>
+      </c>
+      <c r="L10">
+        <v>0.04721278314819877</v>
+      </c>
+      <c r="M10">
+        <v>1.16470575134241</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.385008203392744</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3264092882429566</v>
+      </c>
+      <c r="D11">
+        <v>0.1742512805000587</v>
+      </c>
+      <c r="E11">
+        <v>0.07957054196333502</v>
+      </c>
+      <c r="F11">
+        <v>0.6587697921217597</v>
+      </c>
+      <c r="G11">
+        <v>0.3812889636407135</v>
+      </c>
+      <c r="H11">
+        <v>0.3028879947325436</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.05992644536217284</v>
+      </c>
+      <c r="K11">
+        <v>5.885128794182094</v>
+      </c>
+      <c r="L11">
+        <v>0.04681195808338501</v>
+      </c>
+      <c r="M11">
+        <v>1.247514638803295</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.391615068294044</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.3325162703148123</v>
+      </c>
+      <c r="D12">
+        <v>0.1778573372953502</v>
+      </c>
+      <c r="E12">
+        <v>0.08035998269740574</v>
+      </c>
+      <c r="F12">
+        <v>0.6632472955659807</v>
+      </c>
+      <c r="G12">
+        <v>0.3837878405730493</v>
+      </c>
+      <c r="H12">
+        <v>0.3019521436973918</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.05957817567854917</v>
+      </c>
+      <c r="K12">
+        <v>6.034574716728457</v>
+      </c>
+      <c r="L12">
+        <v>0.04666857733925589</v>
+      </c>
+      <c r="M12">
+        <v>1.278942923018391</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1.395072398769798</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.3311979011572532</v>
+      </c>
+      <c r="D13">
+        <v>0.1770798862969514</v>
+      </c>
+      <c r="E13">
+        <v>0.08018915575057406</v>
+      </c>
+      <c r="F13">
+        <v>0.6622671768415174</v>
+      </c>
+      <c r="G13">
+        <v>0.3832362677786563</v>
+      </c>
+      <c r="H13">
+        <v>0.3021464018539604</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.05965210878056837</v>
+      </c>
+      <c r="K13">
+        <v>6.002376999668513</v>
+      </c>
+      <c r="L13">
+        <v>0.04669907889149094</v>
+      </c>
+      <c r="M13">
+        <v>1.272170955018709</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.394284200746199</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.3269103151050672</v>
+      </c>
+      <c r="D14">
+        <v>0.1745475850209743</v>
+      </c>
+      <c r="E14">
+        <v>0.07963512779896575</v>
+      </c>
+      <c r="F14">
+        <v>0.659131072077642</v>
+      </c>
+      <c r="G14">
+        <v>0.3814885450481285</v>
+      </c>
+      <c r="H14">
+        <v>0.3028077297286558</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.059897311313172</v>
+      </c>
+      <c r="K14">
+        <v>5.897418533230621</v>
+      </c>
+      <c r="L14">
+        <v>0.04679999210173413</v>
+      </c>
+      <c r="M14">
+        <v>1.250098782548349</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.391879959768431</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.3242930874837384</v>
+      </c>
+      <c r="D15">
+        <v>0.1729988551056465</v>
+      </c>
+      <c r="E15">
+        <v>0.07929811311533896</v>
+      </c>
+      <c r="F15">
+        <v>0.6572559785066758</v>
+      </c>
+      <c r="G15">
+        <v>0.3804568469670926</v>
+      </c>
+      <c r="H15">
+        <v>0.3032339961145851</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.06005062550308438</v>
+      </c>
+      <c r="K15">
+        <v>5.833162256366279</v>
+      </c>
+      <c r="L15">
+        <v>0.04686290669714843</v>
+      </c>
+      <c r="M15">
+        <v>1.236588463728594</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1.390533768509073</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.3094292279190256</v>
+      </c>
+      <c r="D16">
+        <v>0.1641588767341489</v>
+      </c>
+      <c r="E16">
+        <v>0.07740192195068474</v>
+      </c>
+      <c r="F16">
+        <v>0.6471950471740158</v>
+      </c>
+      <c r="G16">
+        <v>0.375122983983772</v>
+      </c>
+      <c r="H16">
+        <v>0.3059939327730916</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.06097611524738156</v>
+      </c>
+      <c r="K16">
+        <v>5.465414024454788</v>
+      </c>
+      <c r="L16">
+        <v>0.04724013932606397</v>
+      </c>
+      <c r="M16">
+        <v>1.159303185607115</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.384706416334268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.3004262344757365</v>
+      </c>
+      <c r="D17">
+        <v>0.1587658634179974</v>
+      </c>
+      <c r="E17">
+        <v>0.07626912969278621</v>
+      </c>
+      <c r="F17">
+        <v>0.6416141948668539</v>
+      </c>
+      <c r="G17">
+        <v>0.3723491104112213</v>
+      </c>
+      <c r="H17">
+        <v>0.3079621220392852</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.06158475313145928</v>
+      </c>
+      <c r="K17">
+        <v>5.240197398102225</v>
+      </c>
+      <c r="L17">
+        <v>0.04748624241239163</v>
+      </c>
+      <c r="M17">
+        <v>1.112003733190349</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.382760964680244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.295288683929968</v>
+      </c>
+      <c r="D18">
+        <v>0.1556744578834923</v>
+      </c>
+      <c r="E18">
+        <v>0.07562843743574632</v>
+      </c>
+      <c r="F18">
+        <v>0.6386139448339492</v>
+      </c>
+      <c r="G18">
+        <v>0.3709298852347587</v>
+      </c>
+      <c r="H18">
+        <v>0.3091921799161952</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.06194947132448547</v>
+      </c>
+      <c r="K18">
+        <v>5.110784098495856</v>
+      </c>
+      <c r="L18">
+        <v>0.04763310771422269</v>
+      </c>
+      <c r="M18">
+        <v>1.084836014945786</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.382219770102296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2935560350707931</v>
+      </c>
+      <c r="D19">
+        <v>0.1546295185429614</v>
+      </c>
+      <c r="E19">
+        <v>0.07541334434995406</v>
+      </c>
+      <c r="F19">
+        <v>0.6376334305391111</v>
+      </c>
+      <c r="G19">
+        <v>0.3704789919332114</v>
+      </c>
+      <c r="H19">
+        <v>0.3096252049582873</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.06207543915290969</v>
+      </c>
+      <c r="K19">
+        <v>5.066987022145554</v>
+      </c>
+      <c r="L19">
+        <v>0.04768373869340436</v>
+      </c>
+      <c r="M19">
+        <v>1.07564362334633</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.382133819902634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.3013803648454427</v>
+      </c>
+      <c r="D20">
+        <v>0.1593388592942517</v>
+      </c>
+      <c r="E20">
+        <v>0.0763885860136817</v>
+      </c>
+      <c r="F20">
+        <v>0.6421864148525387</v>
+      </c>
+      <c r="G20">
+        <v>0.3726260022117742</v>
+      </c>
+      <c r="H20">
+        <v>0.3077423934957579</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.06151843845345795</v>
+      </c>
+      <c r="K20">
+        <v>5.264158763605906</v>
+      </c>
+      <c r="L20">
+        <v>0.04745949257949711</v>
+      </c>
+      <c r="M20">
+        <v>1.117034859926846</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1.382907798098813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.3281677884095302</v>
+      </c>
+      <c r="D21">
+        <v>0.1752908846635819</v>
+      </c>
+      <c r="E21">
+        <v>0.07979736888859534</v>
+      </c>
+      <c r="F21">
+        <v>0.6600426197811871</v>
+      </c>
+      <c r="G21">
+        <v>0.3819937600244572</v>
+      </c>
+      <c r="H21">
+        <v>0.3026090487058468</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.05982463682394368</v>
+      </c>
+      <c r="K21">
+        <v>5.928240235224621</v>
+      </c>
+      <c r="L21">
+        <v>0.04677012122996338</v>
+      </c>
+      <c r="M21">
+        <v>1.256579907690607</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1.392559661206349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.3460749678464197</v>
+      </c>
+      <c r="D22">
+        <v>0.1858214518497334</v>
+      </c>
+      <c r="E22">
+        <v>0.08212918098468691</v>
+      </c>
+      <c r="F22">
+        <v>0.6737446962159623</v>
+      </c>
+      <c r="G22">
+        <v>0.3898354006943521</v>
+      </c>
+      <c r="H22">
+        <v>0.3001938611252513</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.0588562783485429</v>
+      </c>
+      <c r="K22">
+        <v>6.363725144971227</v>
+      </c>
+      <c r="L22">
+        <v>0.04636868987028819</v>
+      </c>
+      <c r="M22">
+        <v>1.348196844434526</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1.404471051020778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.3364790802747564</v>
+      </c>
+      <c r="D23">
+        <v>0.1801909071808581</v>
+      </c>
+      <c r="E23">
+        <v>0.0808747684941622</v>
+      </c>
+      <c r="F23">
+        <v>0.6662374009131753</v>
+      </c>
+      <c r="G23">
+        <v>0.3854852832716205</v>
+      </c>
+      <c r="H23">
+        <v>0.3013935197784718</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.05936000909632355</v>
+      </c>
+      <c r="K23">
+        <v>6.131146264012102</v>
+      </c>
+      <c r="L23">
+        <v>0.04657835693616796</v>
+      </c>
+      <c r="M23">
+        <v>1.299256982749739</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.397577862102565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.3009488833317278</v>
+      </c>
+      <c r="D24">
+        <v>0.1590797796069694</v>
+      </c>
+      <c r="E24">
+        <v>0.07633454698175512</v>
+      </c>
+      <c r="F24">
+        <v>0.6419270673057866</v>
+      </c>
+      <c r="G24">
+        <v>0.3725002743707506</v>
+      </c>
+      <c r="H24">
+        <v>0.3078414266283005</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.06154837329673413</v>
+      </c>
+      <c r="K24">
+        <v>5.253325626186097</v>
+      </c>
+      <c r="L24">
+        <v>0.04747156944918274</v>
+      </c>
+      <c r="M24">
+        <v>1.114760209385935</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.382839621595565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.2641622277481872</v>
+      </c>
+      <c r="D25">
+        <v>0.1367042074283233</v>
+      </c>
+      <c r="E25">
+        <v>0.07184869383784331</v>
+      </c>
+      <c r="F25">
+        <v>0.6236391445978029</v>
+      </c>
+      <c r="G25">
+        <v>0.3651562749314508</v>
+      </c>
+      <c r="H25">
+        <v>0.3185099640718363</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.0644646836698044</v>
+      </c>
+      <c r="K25">
+        <v>4.311071553212003</v>
+      </c>
+      <c r="L25">
+        <v>0.04863727134914342</v>
+      </c>
+      <c r="M25">
+        <v>0.9171509264803746</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.388801530268353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2382106838612543</v>
+        <v>0.4004911058505485</v>
       </c>
       <c r="D2">
-        <v>0.1205107893085682</v>
+        <v>0.1775387999900744</v>
       </c>
       <c r="E2">
-        <v>0.06886326703668111</v>
+        <v>0.1699669624180657</v>
       </c>
       <c r="F2">
-        <v>0.6161900824442696</v>
+        <v>1.597962881869364</v>
       </c>
       <c r="G2">
-        <v>0.3647456210124886</v>
+        <v>0.9467706423634326</v>
       </c>
       <c r="H2">
-        <v>0.3292333823810054</v>
+        <v>1.002803097962662</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06705017778532785</v>
+        <v>0.210103688300407</v>
       </c>
       <c r="K2">
-        <v>3.619416322817642</v>
+        <v>1.426289054253061</v>
       </c>
       <c r="L2">
-        <v>0.04966079422922043</v>
+        <v>0.1545022747935629</v>
       </c>
       <c r="M2">
-        <v>0.7724355836211814</v>
+        <v>0.4732552272329684</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.409754445262081</v>
+        <v>3.942727425474814</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2212444492663934</v>
+        <v>0.3984529761517024</v>
       </c>
       <c r="D3">
-        <v>0.1096852974836295</v>
+        <v>0.1750985820047859</v>
       </c>
       <c r="E3">
-        <v>0.06702138897664867</v>
+        <v>0.1704545377486326</v>
       </c>
       <c r="F3">
-        <v>0.6145245843193976</v>
+        <v>1.612544587557991</v>
       </c>
       <c r="G3">
-        <v>0.3672485292069823</v>
+        <v>0.9584404617549751</v>
       </c>
       <c r="H3">
-        <v>0.3381409922941288</v>
+        <v>1.013325435510744</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06905751224546286</v>
+        <v>0.2120668672593542</v>
       </c>
       <c r="K3">
-        <v>3.15117686182208</v>
+        <v>1.27599483284439</v>
       </c>
       <c r="L3">
-        <v>0.05045350608575028</v>
+        <v>0.1553946711331839</v>
       </c>
       <c r="M3">
-        <v>0.6746614777507531</v>
+        <v>0.4436045141356857</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.433262535490812</v>
+        <v>3.98918062432368</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.211107312174093</v>
+        <v>0.3973803935531208</v>
       </c>
       <c r="D4">
-        <v>0.1031038477153103</v>
+        <v>0.1736494436727369</v>
       </c>
       <c r="E4">
-        <v>0.06597482649719488</v>
+        <v>0.1708149865162714</v>
       </c>
       <c r="F4">
-        <v>0.6150566091702814</v>
+        <v>1.622409667606682</v>
       </c>
       <c r="G4">
-        <v>0.3700538114850573</v>
+        <v>0.9662759061860626</v>
       </c>
       <c r="H4">
-        <v>0.3443734861907615</v>
+        <v>1.020266409887462</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07041023025476356</v>
+        <v>0.2133549660341938</v>
       </c>
       <c r="K4">
-        <v>2.863682000239777</v>
+        <v>1.183477214139288</v>
       </c>
       <c r="L4">
-        <v>0.05098785764112712</v>
+        <v>0.1559813545475546</v>
       </c>
       <c r="M4">
-        <v>0.6147206518605088</v>
+        <v>0.4254287797841769</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.451972565184505</v>
+        <v>4.020118264284591</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2070431822429697</v>
+        <v>0.3969883787473378</v>
       </c>
       <c r="D5">
-        <v>0.1004372396754647</v>
+        <v>0.1730713518486482</v>
       </c>
       <c r="E5">
-        <v>0.06556884739896951</v>
+        <v>0.1709772600650581</v>
       </c>
       <c r="F5">
-        <v>0.6156482893483428</v>
+        <v>1.626659036820406</v>
       </c>
       <c r="G5">
-        <v>0.3715013697722043</v>
+        <v>0.9696372449163846</v>
       </c>
       <c r="H5">
-        <v>0.3470986940879612</v>
+        <v>1.023215687712295</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07099090039075762</v>
+        <v>0.2139006863152861</v>
       </c>
       <c r="K5">
-        <v>2.746495768708513</v>
+        <v>1.145718826017458</v>
       </c>
       <c r="L5">
-        <v>0.0512174092547486</v>
+        <v>0.1562301941095008</v>
       </c>
       <c r="M5">
-        <v>0.590310372587318</v>
+        <v>0.4180301142712821</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.46062774193085</v>
+        <v>4.033332580731738</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2063722707390241</v>
+        <v>0.3969260101654015</v>
       </c>
       <c r="D6">
-        <v>0.09999535060445197</v>
+        <v>0.1729761141000878</v>
       </c>
       <c r="E6">
-        <v>0.06550265315868309</v>
+        <v>0.1710051357235152</v>
       </c>
       <c r="F6">
-        <v>0.6157687235638605</v>
+        <v>1.627378487915308</v>
       </c>
       <c r="G6">
-        <v>0.3717597059264008</v>
+        <v>0.9702055542387527</v>
       </c>
       <c r="H6">
-        <v>0.3475622273122241</v>
+        <v>1.023712708117216</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07108907480302129</v>
+        <v>0.2139925600188288</v>
       </c>
       <c r="K6">
-        <v>2.727034417174821</v>
+        <v>1.13944573016488</v>
       </c>
       <c r="L6">
-        <v>0.05125623375114863</v>
+        <v>0.1562721038087993</v>
       </c>
       <c r="M6">
-        <v>0.5862578335513575</v>
+        <v>0.4168020771813588</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.462125915195188</v>
+        <v>4.035563457786836</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2110522359394906</v>
+        <v>0.397374924075848</v>
       </c>
       <c r="D7">
-        <v>0.1030678239792238</v>
+        <v>0.1736415968318639</v>
       </c>
       <c r="E7">
-        <v>0.0659692692148024</v>
+        <v>0.1708171126498677</v>
       </c>
       <c r="F7">
-        <v>0.6150630915912387</v>
+        <v>1.622466047818165</v>
       </c>
       <c r="G7">
-        <v>0.3700721201118853</v>
+        <v>0.9663205570452078</v>
       </c>
       <c r="H7">
-        <v>0.3444094969129807</v>
+        <v>1.020305695843405</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07041794325878037</v>
+        <v>0.213362241532657</v>
       </c>
       <c r="K7">
-        <v>2.862101745864038</v>
+        <v>1.182968217286316</v>
       </c>
       <c r="L7">
-        <v>0.0509909059076481</v>
+        <v>0.1559846709379862</v>
       </c>
       <c r="M7">
-        <v>0.6143913903741804</v>
+        <v>0.4253289652642778</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.452085176054297</v>
+        <v>4.020294020009857</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2323003295540786</v>
+        <v>0.3997513001753248</v>
       </c>
       <c r="D8">
-        <v>0.1167639095028221</v>
+        <v>0.1766872558888224</v>
       </c>
       <c r="E8">
-        <v>0.06821024102270279</v>
+        <v>0.1701224198465852</v>
       </c>
       <c r="F8">
-        <v>0.6152832554149015</v>
+        <v>1.602801384188837</v>
       </c>
       <c r="G8">
-        <v>0.3653363566580694</v>
+        <v>0.9506552047688572</v>
       </c>
       <c r="H8">
-        <v>0.332142325288693</v>
+        <v>1.006331543646738</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06771686497535967</v>
+        <v>0.2107634369187199</v>
       </c>
       <c r="K8">
-        <v>3.457946445617949</v>
+        <v>1.374518246349567</v>
       </c>
       <c r="L8">
-        <v>0.0499241286116785</v>
+        <v>0.1548019414662321</v>
       </c>
       <c r="M8">
-        <v>0.7386992463840869</v>
+        <v>0.4630257816551975</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.416945103909697</v>
+        <v>3.958243013201553</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2763656202348841</v>
+        <v>0.405826583711459</v>
       </c>
       <c r="D9">
-        <v>0.1441939540323602</v>
+        <v>0.1830467611996909</v>
       </c>
       <c r="E9">
-        <v>0.07330811438990636</v>
+        <v>0.1692435109495776</v>
       </c>
       <c r="F9">
-        <v>0.6288132362829799</v>
+        <v>1.571475646132384</v>
       </c>
       <c r="G9">
-        <v>0.3668070512844679</v>
+        <v>0.9252606736441038</v>
       </c>
       <c r="H9">
-        <v>0.3144498969840299</v>
+        <v>0.9827375699472043</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06341169959518922</v>
+        <v>0.2063227007782373</v>
       </c>
       <c r="K9">
-        <v>4.628025193257713</v>
+        <v>1.748170772065237</v>
       </c>
       <c r="L9">
-        <v>0.04821837937879714</v>
+        <v>0.1527892691894106</v>
       </c>
       <c r="M9">
-        <v>0.9835676578348469</v>
+        <v>0.5371653855701908</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.384077339025481</v>
+        <v>3.855739807802195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3104621743580935</v>
+        <v>0.411148763645258</v>
       </c>
       <c r="D10">
-        <v>0.1647757189900148</v>
+        <v>0.1879514165152045</v>
       </c>
       <c r="E10">
-        <v>0.07753267690390331</v>
+        <v>0.1688909357086317</v>
       </c>
       <c r="F10">
-        <v>0.6478608187665955</v>
+        <v>1.552874819108133</v>
       </c>
       <c r="G10">
-        <v>0.3754638754288635</v>
+        <v>0.9098607704214174</v>
       </c>
       <c r="H10">
-        <v>0.3057828492690788</v>
+        <v>0.967723792050208</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06090867701998803</v>
+        <v>0.203458751806977</v>
       </c>
       <c r="K10">
-        <v>5.491130947369129</v>
+        <v>2.021380018939794</v>
       </c>
       <c r="L10">
-        <v>0.04721278314819877</v>
+        <v>0.1514964100918341</v>
       </c>
       <c r="M10">
-        <v>1.16470575134241</v>
+        <v>0.5917448029399424</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.385008203392744</v>
+        <v>3.792143255187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3264092882429566</v>
+        <v>0.4137556125314461</v>
       </c>
       <c r="D11">
-        <v>0.1742512805000587</v>
+        <v>0.1902324020370685</v>
       </c>
       <c r="E11">
-        <v>0.07957054196333502</v>
+        <v>0.1687938838198662</v>
       </c>
       <c r="F11">
-        <v>0.6587697921217597</v>
+        <v>1.545371923682254</v>
       </c>
       <c r="G11">
-        <v>0.3812889636407135</v>
+        <v>0.9035646676945959</v>
       </c>
       <c r="H11">
-        <v>0.3028879947325436</v>
+        <v>0.9613972403257378</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05992644536217284</v>
+        <v>0.2022422296213087</v>
       </c>
       <c r="K11">
-        <v>5.885128794182094</v>
+        <v>2.145363871828351</v>
       </c>
       <c r="L11">
-        <v>0.04681195808338501</v>
+        <v>0.1509483791369224</v>
       </c>
       <c r="M11">
-        <v>1.247514638803295</v>
+        <v>0.6165936478054874</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.391615068294044</v>
+        <v>3.765759297288099</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3325162703148123</v>
+        <v>0.4147693842236038</v>
       </c>
       <c r="D12">
-        <v>0.1778573372953502</v>
+        <v>0.1911032455550838</v>
       </c>
       <c r="E12">
-        <v>0.08035998269740574</v>
+        <v>0.1687662127892189</v>
       </c>
       <c r="F12">
-        <v>0.6632472955659807</v>
+        <v>1.542668684095752</v>
       </c>
       <c r="G12">
-        <v>0.3837878405730493</v>
+        <v>0.9012827070004903</v>
       </c>
       <c r="H12">
-        <v>0.3019521436973918</v>
+        <v>0.9590738995148911</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05957817567854917</v>
+        <v>0.201793960809848</v>
       </c>
       <c r="K12">
-        <v>6.034574716728457</v>
+        <v>2.192267813929732</v>
       </c>
       <c r="L12">
-        <v>0.04666857733925589</v>
+        <v>0.1507466022469384</v>
       </c>
       <c r="M12">
-        <v>1.278942923018391</v>
+        <v>0.6260057039982172</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.395072398769798</v>
+        <v>3.756134957206598</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3311979011572532</v>
+        <v>0.4145498682166817</v>
       </c>
       <c r="D13">
-        <v>0.1770798862969514</v>
+        <v>0.190915380071786</v>
       </c>
       <c r="E13">
-        <v>0.08018915575057406</v>
+        <v>0.1687717688205872</v>
       </c>
       <c r="F13">
-        <v>0.6622671768415174</v>
+        <v>1.543244738710435</v>
       </c>
       <c r="G13">
-        <v>0.3832362677786563</v>
+        <v>0.9017696174525582</v>
       </c>
       <c r="H13">
-        <v>0.3021464018539604</v>
+        <v>0.9595710528655275</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05965210878056837</v>
+        <v>0.2018899520821691</v>
       </c>
       <c r="K13">
-        <v>6.002376999668513</v>
+        <v>2.182168304139793</v>
       </c>
       <c r="L13">
-        <v>0.04669907889149094</v>
+        <v>0.1507898029978101</v>
       </c>
       <c r="M13">
-        <v>1.272170955018709</v>
+        <v>0.6239785547343502</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.394284200746199</v>
+        <v>3.75819141408661</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3269103151050672</v>
+        <v>0.4138384833030955</v>
       </c>
       <c r="D14">
-        <v>0.1745475850209743</v>
+        <v>0.1903039053565152</v>
       </c>
       <c r="E14">
-        <v>0.07963512779896575</v>
+        <v>0.1687914254786023</v>
       </c>
       <c r="F14">
-        <v>0.659131072077642</v>
+        <v>1.545146761462775</v>
       </c>
       <c r="G14">
-        <v>0.3814885450481285</v>
+        <v>0.9033748791404292</v>
       </c>
       <c r="H14">
-        <v>0.3028077297286558</v>
+        <v>0.9612046468524369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.059897311313172</v>
+        <v>0.2022051017752773</v>
       </c>
       <c r="K14">
-        <v>5.897418533230621</v>
+        <v>2.149223626587798</v>
       </c>
       <c r="L14">
-        <v>0.04679999210173413</v>
+        <v>0.1509316636694127</v>
       </c>
       <c r="M14">
-        <v>1.250098782548349</v>
+        <v>0.617367939867691</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.391879959768431</v>
+        <v>3.764960145020751</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3242930874837384</v>
+        <v>0.4134062026060406</v>
       </c>
       <c r="D15">
-        <v>0.1729988551056465</v>
+        <v>0.1899302795268341</v>
       </c>
       <c r="E15">
-        <v>0.07929811311533896</v>
+        <v>0.1688046474786731</v>
       </c>
       <c r="F15">
-        <v>0.6572559785066758</v>
+        <v>1.546329772130221</v>
       </c>
       <c r="G15">
-        <v>0.3804568469670926</v>
+        <v>0.9043714692432587</v>
       </c>
       <c r="H15">
-        <v>0.3032339961145851</v>
+        <v>0.9622146976941366</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06005062550308438</v>
+        <v>0.2023997548847412</v>
       </c>
       <c r="K15">
-        <v>5.833162256366279</v>
+        <v>2.129037978695067</v>
       </c>
       <c r="L15">
-        <v>0.04686290669714843</v>
+        <v>0.1510193058617393</v>
       </c>
       <c r="M15">
-        <v>1.236588463728594</v>
+        <v>0.6133190342795558</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.390533768509073</v>
+        <v>3.769153957642857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3094292279190256</v>
+        <v>0.4109821295916731</v>
       </c>
       <c r="D16">
-        <v>0.1641588767341489</v>
+        <v>0.1878033444877047</v>
       </c>
       <c r="E16">
-        <v>0.07740192195068474</v>
+        <v>0.1688985504337097</v>
       </c>
       <c r="F16">
-        <v>0.6471950471740158</v>
+        <v>1.553384449794038</v>
       </c>
       <c r="G16">
-        <v>0.375122983983772</v>
+        <v>0.9102865297500671</v>
       </c>
       <c r="H16">
-        <v>0.3059939327730916</v>
+        <v>0.9681473758140839</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06097611524738156</v>
+        <v>0.2035399902954289</v>
       </c>
       <c r="K16">
-        <v>5.465414024454788</v>
+        <v>2.013271093080391</v>
       </c>
       <c r="L16">
-        <v>0.04724013932606397</v>
+        <v>0.1515330307430514</v>
       </c>
       <c r="M16">
-        <v>1.159303185607115</v>
+        <v>0.5901212319279239</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.384706416334268</v>
+        <v>3.793918793980822</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3004262344757365</v>
+        <v>0.4095425479228538</v>
       </c>
       <c r="D17">
-        <v>0.1587658634179974</v>
+        <v>0.1865112436413767</v>
       </c>
       <c r="E17">
-        <v>0.07626912969278621</v>
+        <v>0.1689723593824155</v>
       </c>
       <c r="F17">
-        <v>0.6416141948668539</v>
+        <v>1.557957874496189</v>
       </c>
       <c r="G17">
-        <v>0.3723491104112213</v>
+        <v>0.9140970818300431</v>
       </c>
       <c r="H17">
-        <v>0.3079621220392852</v>
+        <v>0.9719157967989105</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06158475313145928</v>
+        <v>0.2042615858920698</v>
       </c>
       <c r="K17">
-        <v>5.240197398102225</v>
+        <v>1.942172878628696</v>
       </c>
       <c r="L17">
-        <v>0.04748624241239163</v>
+        <v>0.151858443183837</v>
       </c>
       <c r="M17">
-        <v>1.112003733190349</v>
+        <v>0.5758949303785101</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.382760964680244</v>
+        <v>3.809763791016991</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.295288683929968</v>
+        <v>0.408732029318827</v>
       </c>
       <c r="D18">
-        <v>0.1556744578834923</v>
+        <v>0.1857727568358314</v>
       </c>
       <c r="E18">
-        <v>0.07562843743574632</v>
+        <v>0.1690207754816662</v>
       </c>
       <c r="F18">
-        <v>0.6386139448339492</v>
+        <v>1.560678621277482</v>
       </c>
       <c r="G18">
-        <v>0.3709298852347587</v>
+        <v>0.9163555682833504</v>
       </c>
       <c r="H18">
-        <v>0.3091921799161952</v>
+        <v>0.9741306641507919</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06194947132448547</v>
+        <v>0.2046847522997943</v>
       </c>
       <c r="K18">
-        <v>5.110784098495856</v>
+        <v>1.901250959708079</v>
       </c>
       <c r="L18">
-        <v>0.04763310771422269</v>
+        <v>0.1520493868582768</v>
       </c>
       <c r="M18">
-        <v>1.084836014945786</v>
+        <v>0.5677142928501269</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.382219770102296</v>
+        <v>3.819117065703892</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2935560350707931</v>
+        <v>0.4084606086703104</v>
       </c>
       <c r="D19">
-        <v>0.1546295185429614</v>
+        <v>0.1855235268451736</v>
       </c>
       <c r="E19">
-        <v>0.07541334434995406</v>
+        <v>0.1690381933489817</v>
       </c>
       <c r="F19">
-        <v>0.6376334305391111</v>
+        <v>1.561615314623424</v>
       </c>
       <c r="G19">
-        <v>0.3704789919332114</v>
+        <v>0.9171317117424493</v>
       </c>
       <c r="H19">
-        <v>0.3096252049582873</v>
+        <v>0.9748887158079711</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06207543915290969</v>
+        <v>0.2048294246885369</v>
       </c>
       <c r="K19">
-        <v>5.066987022145554</v>
+        <v>1.887390761187362</v>
       </c>
       <c r="L19">
-        <v>0.04768373869340436</v>
+        <v>0.1521146859435767</v>
       </c>
       <c r="M19">
-        <v>1.07564362334633</v>
+        <v>0.5649448234901797</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.382133819902634</v>
+        <v>3.822325068351546</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3013803648454427</v>
+        <v>0.4096939843372525</v>
       </c>
       <c r="D20">
-        <v>0.1593388592942517</v>
+        <v>0.1866483046201353</v>
       </c>
       <c r="E20">
-        <v>0.0763885860136817</v>
+        <v>0.1689638853288535</v>
       </c>
       <c r="F20">
-        <v>0.6421864148525387</v>
+        <v>1.557461686163848</v>
       </c>
       <c r="G20">
-        <v>0.3726260022117742</v>
+        <v>0.9136845312347575</v>
       </c>
       <c r="H20">
-        <v>0.3077423934957579</v>
+        <v>0.97150973909784</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06151843845345795</v>
+        <v>0.2041839300974537</v>
       </c>
       <c r="K20">
-        <v>5.264158763605906</v>
+        <v>1.94974433460186</v>
       </c>
       <c r="L20">
-        <v>0.04745949257949711</v>
+        <v>0.1518234118826474</v>
       </c>
       <c r="M20">
-        <v>1.117034859926846</v>
+        <v>0.5774091464676445</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.382907798098813</v>
+        <v>3.808052257236909</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3281677884095302</v>
+        <v>0.4140467127634793</v>
       </c>
       <c r="D21">
-        <v>0.1752908846635819</v>
+        <v>0.1904833187032722</v>
       </c>
       <c r="E21">
-        <v>0.07979736888859534</v>
+        <v>0.1687854056188876</v>
       </c>
       <c r="F21">
-        <v>0.6600426197811871</v>
+        <v>1.544584346862401</v>
       </c>
       <c r="G21">
-        <v>0.3819937600244572</v>
+        <v>0.9029005983893228</v>
       </c>
       <c r="H21">
-        <v>0.3026090487058468</v>
+        <v>0.9607228560213485</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05982463682394368</v>
+        <v>0.2021121981586198</v>
       </c>
       <c r="K21">
-        <v>5.928240235224621</v>
+        <v>2.1589015494406</v>
       </c>
       <c r="L21">
-        <v>0.04677012122996338</v>
+        <v>0.1508898398056555</v>
       </c>
       <c r="M21">
-        <v>1.256579907690607</v>
+        <v>0.6193095789638932</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.392559661206349</v>
+        <v>3.76296204863138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3460749678464197</v>
+        <v>0.4170465572915134</v>
       </c>
       <c r="D22">
-        <v>0.1858214518497334</v>
+        <v>0.193030974081509</v>
       </c>
       <c r="E22">
-        <v>0.08212918098468691</v>
+        <v>0.1687216738040433</v>
       </c>
       <c r="F22">
-        <v>0.6737446962159623</v>
+        <v>1.536972342285566</v>
       </c>
       <c r="G22">
-        <v>0.3898354006943521</v>
+        <v>0.896448693546219</v>
       </c>
       <c r="H22">
-        <v>0.3001938611252513</v>
+        <v>0.9540949381019459</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0588562783485429</v>
+        <v>0.2008304845330144</v>
       </c>
       <c r="K22">
-        <v>6.363725144971227</v>
+        <v>2.295328146305053</v>
       </c>
       <c r="L22">
-        <v>0.04636868987028819</v>
+        <v>0.1503132079495852</v>
       </c>
       <c r="M22">
-        <v>1.348196844434526</v>
+        <v>0.6467072882766871</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.404471051020778</v>
+        <v>3.735630592048068</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3364790802747564</v>
+        <v>0.4154313258383695</v>
       </c>
       <c r="D23">
-        <v>0.1801909071808581</v>
+        <v>0.1916674949447952</v>
       </c>
       <c r="E23">
-        <v>0.0808747684941622</v>
+        <v>0.1687508559403774</v>
       </c>
       <c r="F23">
-        <v>0.6662374009131753</v>
+        <v>1.540961412029176</v>
       </c>
       <c r="G23">
-        <v>0.3854852832716205</v>
+        <v>0.8998375860792009</v>
       </c>
       <c r="H23">
-        <v>0.3013935197784718</v>
+        <v>0.9575937708850546</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05936000909632355</v>
+        <v>0.2015079480940862</v>
       </c>
       <c r="K23">
-        <v>6.131146264012102</v>
+        <v>2.222540321222539</v>
       </c>
       <c r="L23">
-        <v>0.04657835693616796</v>
+        <v>0.150617905980365</v>
       </c>
       <c r="M23">
-        <v>1.299256982749739</v>
+        <v>0.6320835885745311</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.397577862102565</v>
+        <v>3.750022143567037</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3009488833317278</v>
+        <v>0.4096254666128516</v>
       </c>
       <c r="D24">
-        <v>0.1590797796069694</v>
+        <v>0.1865863257680189</v>
       </c>
       <c r="E24">
-        <v>0.07633454698175512</v>
+        <v>0.1689676978121497</v>
       </c>
       <c r="F24">
-        <v>0.6419270673057866</v>
+        <v>1.55768572813416</v>
       </c>
       <c r="G24">
-        <v>0.3725002743707506</v>
+        <v>0.9138708343403152</v>
       </c>
       <c r="H24">
-        <v>0.3078414266283005</v>
+        <v>0.9716931671704288</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06154837329673413</v>
+        <v>0.2042190123918211</v>
       </c>
       <c r="K24">
-        <v>5.253325626186097</v>
+        <v>1.946321424321809</v>
       </c>
       <c r="L24">
-        <v>0.04747156944918274</v>
+        <v>0.1518392375099893</v>
       </c>
       <c r="M24">
-        <v>1.114760209385935</v>
+        <v>0.5767245747716885</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.382839621595565</v>
+        <v>3.80882528234919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2641622277481872</v>
+        <v>0.4040319725911132</v>
       </c>
       <c r="D25">
-        <v>0.1367042074283233</v>
+        <v>0.1812852900546318</v>
       </c>
       <c r="E25">
-        <v>0.07184869383784331</v>
+        <v>0.169429687551208</v>
       </c>
       <c r="F25">
-        <v>0.6236391445978029</v>
+        <v>1.579175091724984</v>
       </c>
       <c r="G25">
-        <v>0.3651562749314508</v>
+        <v>0.9315593200008578</v>
       </c>
       <c r="H25">
-        <v>0.3185099640718363</v>
+        <v>0.9887127130486988</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0644646836698044</v>
+        <v>0.2074539598949272</v>
       </c>
       <c r="K25">
-        <v>4.311071553212003</v>
+        <v>1.647310762050893</v>
       </c>
       <c r="L25">
-        <v>0.04863727134914342</v>
+        <v>0.1533010341901679</v>
       </c>
       <c r="M25">
-        <v>0.9171509264803746</v>
+        <v>0.5170878799287308</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.388801530268353</v>
+        <v>3.881414284765441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4004911058505485</v>
+        <v>0.2382106838606433</v>
       </c>
       <c r="D2">
-        <v>0.1775387999900744</v>
+        <v>0.1205107893085682</v>
       </c>
       <c r="E2">
-        <v>0.1699669624180657</v>
+        <v>0.06886326703668111</v>
       </c>
       <c r="F2">
-        <v>1.597962881869364</v>
+        <v>0.6161900824442625</v>
       </c>
       <c r="G2">
-        <v>0.9467706423634326</v>
+        <v>0.3647456210125455</v>
       </c>
       <c r="H2">
-        <v>1.002803097962662</v>
+        <v>0.3292333823810054</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.210103688300407</v>
+        <v>0.06705017778522837</v>
       </c>
       <c r="K2">
-        <v>1.426289054253061</v>
+        <v>3.619416322817585</v>
       </c>
       <c r="L2">
-        <v>0.1545022747935629</v>
+        <v>0.04966079422927905</v>
       </c>
       <c r="M2">
-        <v>0.4732552272329684</v>
+        <v>0.7724355836211814</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.942727425474814</v>
+        <v>1.40975444526201</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3984529761517024</v>
+        <v>0.2212444492666918</v>
       </c>
       <c r="D3">
-        <v>0.1750985820047859</v>
+        <v>0.1096852974837219</v>
       </c>
       <c r="E3">
-        <v>0.1704545377486326</v>
+        <v>0.0670213889766611</v>
       </c>
       <c r="F3">
-        <v>1.612544587557991</v>
+        <v>0.6145245843194189</v>
       </c>
       <c r="G3">
-        <v>0.9584404617549751</v>
+        <v>0.3672485292070391</v>
       </c>
       <c r="H3">
-        <v>1.013325435510744</v>
+        <v>0.3381409922942424</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2120668672593542</v>
+        <v>0.06905751224539181</v>
       </c>
       <c r="K3">
-        <v>1.27599483284439</v>
+        <v>3.151176861822137</v>
       </c>
       <c r="L3">
-        <v>0.1553946711331839</v>
+        <v>0.05045350608572186</v>
       </c>
       <c r="M3">
-        <v>0.4436045141356857</v>
+        <v>0.6746614777507673</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.98918062432368</v>
+        <v>1.433262535490798</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3973803935531208</v>
+        <v>0.2111073121742635</v>
       </c>
       <c r="D4">
-        <v>0.1736494436727369</v>
+        <v>0.1031038477153885</v>
       </c>
       <c r="E4">
-        <v>0.1708149865162714</v>
+        <v>0.06597482649722153</v>
       </c>
       <c r="F4">
-        <v>1.622409667606682</v>
+        <v>0.6150566091702672</v>
       </c>
       <c r="G4">
-        <v>0.9662759061860626</v>
+        <v>0.3700538114850005</v>
       </c>
       <c r="H4">
-        <v>1.020266409887462</v>
+        <v>0.3443734861907544</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2133549660341938</v>
+        <v>0.07041023025475646</v>
       </c>
       <c r="K4">
-        <v>1.183477214139288</v>
+        <v>2.86368200023972</v>
       </c>
       <c r="L4">
-        <v>0.1559813545475546</v>
+        <v>0.05098785764118396</v>
       </c>
       <c r="M4">
-        <v>0.4254287797841769</v>
+        <v>0.6147206518605159</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.020118264284591</v>
+        <v>1.451972565184462</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3969883787473378</v>
+        <v>0.2070431822432255</v>
       </c>
       <c r="D5">
-        <v>0.1730713518486482</v>
+        <v>0.1004372396755713</v>
       </c>
       <c r="E5">
-        <v>0.1709772600650581</v>
+        <v>0.06556884739894286</v>
       </c>
       <c r="F5">
-        <v>1.626659036820406</v>
+        <v>0.6156482893483499</v>
       </c>
       <c r="G5">
-        <v>0.9696372449163846</v>
+        <v>0.3715013697722043</v>
       </c>
       <c r="H5">
-        <v>1.023215687712295</v>
+        <v>0.3470986940879612</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2139006863152861</v>
+        <v>0.07099090039076472</v>
       </c>
       <c r="K5">
-        <v>1.145718826017458</v>
+        <v>2.746495768708513</v>
       </c>
       <c r="L5">
-        <v>0.1562301941095008</v>
+        <v>0.05121740925487472</v>
       </c>
       <c r="M5">
-        <v>0.4180301142712821</v>
+        <v>0.5903103725873038</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.033332580731738</v>
+        <v>1.46062774193085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3969260101654015</v>
+        <v>0.2063722707391236</v>
       </c>
       <c r="D6">
-        <v>0.1729761141000878</v>
+        <v>0.09999535060448039</v>
       </c>
       <c r="E6">
-        <v>0.1710051357235152</v>
+        <v>0.06550265315868309</v>
       </c>
       <c r="F6">
-        <v>1.627378487915308</v>
+        <v>0.6157687235638747</v>
       </c>
       <c r="G6">
-        <v>0.9702055542387527</v>
+        <v>0.3717597059263653</v>
       </c>
       <c r="H6">
-        <v>1.023712708117216</v>
+        <v>0.3475622273123449</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2139925600188288</v>
+        <v>0.07108907480307991</v>
       </c>
       <c r="K6">
-        <v>1.13944573016488</v>
+        <v>2.727034417174934</v>
       </c>
       <c r="L6">
-        <v>0.1562721038087993</v>
+        <v>0.05125623375114152</v>
       </c>
       <c r="M6">
-        <v>0.4168020771813588</v>
+        <v>0.5862578335513575</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.035563457786836</v>
+        <v>1.462125915195216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.397374924075848</v>
+        <v>0.2110522359398885</v>
       </c>
       <c r="D7">
-        <v>0.1736415968318639</v>
+        <v>0.1030678239789893</v>
       </c>
       <c r="E7">
-        <v>0.1708171126498677</v>
+        <v>0.06596926921483437</v>
       </c>
       <c r="F7">
-        <v>1.622466047818165</v>
+        <v>0.6150630915912316</v>
       </c>
       <c r="G7">
-        <v>0.9663205570452078</v>
+        <v>0.3700721201119279</v>
       </c>
       <c r="H7">
-        <v>1.020305695843405</v>
+        <v>0.3444094969129594</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.213362241532657</v>
+        <v>0.07041794325879636</v>
       </c>
       <c r="K7">
-        <v>1.182968217286316</v>
+        <v>2.862101745864265</v>
       </c>
       <c r="L7">
-        <v>0.1559846709379862</v>
+        <v>0.05099090590766053</v>
       </c>
       <c r="M7">
-        <v>0.4253289652642778</v>
+        <v>0.6143913903741876</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.020294020009857</v>
+        <v>1.452085176054268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3997513001753248</v>
+        <v>0.2323003295543202</v>
       </c>
       <c r="D8">
-        <v>0.1766872558888224</v>
+        <v>0.1167639095027226</v>
       </c>
       <c r="E8">
-        <v>0.1701224198465852</v>
+        <v>0.06821024102270457</v>
       </c>
       <c r="F8">
-        <v>1.602801384188837</v>
+        <v>0.6152832554148873</v>
       </c>
       <c r="G8">
-        <v>0.9506552047688572</v>
+        <v>0.3653363566580481</v>
       </c>
       <c r="H8">
-        <v>1.006331543646738</v>
+        <v>0.332142325288693</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2107634369187199</v>
+        <v>0.06771686497536322</v>
       </c>
       <c r="K8">
-        <v>1.374518246349567</v>
+        <v>3.457946445617836</v>
       </c>
       <c r="L8">
-        <v>0.1548019414662321</v>
+        <v>0.04992412861165008</v>
       </c>
       <c r="M8">
-        <v>0.4630257816551975</v>
+        <v>0.7386992463840798</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.958243013201553</v>
+        <v>1.416945103909697</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.405826583711459</v>
+        <v>0.2763656202349978</v>
       </c>
       <c r="D9">
-        <v>0.1830467611996909</v>
+        <v>0.1441939540324455</v>
       </c>
       <c r="E9">
-        <v>0.1692435109495776</v>
+        <v>0.07330811438988505</v>
       </c>
       <c r="F9">
-        <v>1.571475646132384</v>
+        <v>0.6288132362829799</v>
       </c>
       <c r="G9">
-        <v>0.9252606736441038</v>
+        <v>0.3668070512844679</v>
       </c>
       <c r="H9">
-        <v>0.9827375699472043</v>
+        <v>0.3144498969840299</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2063227007782373</v>
+        <v>0.06341169959526738</v>
       </c>
       <c r="K9">
-        <v>1.748170772065237</v>
+        <v>4.62802519325794</v>
       </c>
       <c r="L9">
-        <v>0.1527892691894106</v>
+        <v>0.04821837937872431</v>
       </c>
       <c r="M9">
-        <v>0.5371653855701908</v>
+        <v>0.9835676578348327</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.855739807802195</v>
+        <v>1.384077339025495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.411148763645258</v>
+        <v>0.3104621743577525</v>
       </c>
       <c r="D10">
-        <v>0.1879514165152045</v>
+        <v>0.1647757189902137</v>
       </c>
       <c r="E10">
-        <v>0.1688909357086317</v>
+        <v>0.07753267690390686</v>
       </c>
       <c r="F10">
-        <v>1.552874819108133</v>
+        <v>0.6478608187665884</v>
       </c>
       <c r="G10">
-        <v>0.9098607704214174</v>
+        <v>0.3754638754289914</v>
       </c>
       <c r="H10">
-        <v>0.967723792050208</v>
+        <v>0.3057828492690788</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.203458751806977</v>
+        <v>0.06090867701988856</v>
       </c>
       <c r="K10">
-        <v>2.021380018939794</v>
+        <v>5.491130947369129</v>
       </c>
       <c r="L10">
-        <v>0.1514964100918341</v>
+        <v>0.04721278314822364</v>
       </c>
       <c r="M10">
-        <v>0.5917448029399424</v>
+        <v>1.164705751342439</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.792143255187</v>
+        <v>1.385008203392744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4137556125314461</v>
+        <v>0.3264092882429566</v>
       </c>
       <c r="D11">
-        <v>0.1902324020370685</v>
+        <v>0.1742512805001724</v>
       </c>
       <c r="E11">
-        <v>0.1687938838198662</v>
+        <v>0.07957054196332791</v>
       </c>
       <c r="F11">
-        <v>1.545371923682254</v>
+        <v>0.6587697921217597</v>
       </c>
       <c r="G11">
-        <v>0.9035646676945959</v>
+        <v>0.3812889636407135</v>
       </c>
       <c r="H11">
-        <v>0.9613972403257378</v>
+        <v>0.3028879947325436</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2022422296213087</v>
+        <v>0.05992644536217639</v>
       </c>
       <c r="K11">
-        <v>2.145363871828351</v>
+        <v>5.885128794182094</v>
       </c>
       <c r="L11">
-        <v>0.1509483791369224</v>
+        <v>0.04681195808338323</v>
       </c>
       <c r="M11">
-        <v>0.6165936478054874</v>
+        <v>1.247514638803295</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.765759297288099</v>
+        <v>1.391615068294044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4147693842236038</v>
+        <v>0.3325162703150681</v>
       </c>
       <c r="D12">
-        <v>0.1911032455550838</v>
+        <v>0.1778573372955918</v>
       </c>
       <c r="E12">
-        <v>0.1687662127892189</v>
+        <v>0.08035998269740929</v>
       </c>
       <c r="F12">
-        <v>1.542668684095752</v>
+        <v>0.6632472955659807</v>
       </c>
       <c r="G12">
-        <v>0.9012827070004903</v>
+        <v>0.3837878405731914</v>
       </c>
       <c r="H12">
-        <v>0.9590738995148911</v>
+        <v>0.3019521436973918</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.201793960809848</v>
+        <v>0.05957817567858115</v>
       </c>
       <c r="K12">
-        <v>2.192267813929732</v>
+        <v>6.034574716728514</v>
       </c>
       <c r="L12">
-        <v>0.1507466022469384</v>
+        <v>0.04666857733929319</v>
       </c>
       <c r="M12">
-        <v>0.6260057039982172</v>
+        <v>1.27894292301842</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.756134957206598</v>
+        <v>1.395072398769855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4145498682166817</v>
+        <v>0.3311979011572532</v>
       </c>
       <c r="D13">
-        <v>0.190915380071786</v>
+        <v>0.1770798862968803</v>
       </c>
       <c r="E13">
-        <v>0.1687717688205872</v>
+        <v>0.08018915575057761</v>
       </c>
       <c r="F13">
-        <v>1.543244738710435</v>
+        <v>0.6622671768415174</v>
       </c>
       <c r="G13">
-        <v>0.9017696174525582</v>
+        <v>0.3832362677787415</v>
       </c>
       <c r="H13">
-        <v>0.9595710528655275</v>
+        <v>0.3021464018539461</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2018899520821691</v>
+        <v>0.05965210878051508</v>
       </c>
       <c r="K13">
-        <v>2.182168304139793</v>
+        <v>6.00237699966857</v>
       </c>
       <c r="L13">
-        <v>0.1507898029978101</v>
+        <v>0.04669907889142699</v>
       </c>
       <c r="M13">
-        <v>0.6239785547343502</v>
+        <v>1.272170955018709</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.75819141408661</v>
+        <v>1.394284200746256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4138384833030955</v>
+        <v>0.3269103151055504</v>
       </c>
       <c r="D14">
-        <v>0.1903039053565152</v>
+        <v>0.1745475850210738</v>
       </c>
       <c r="E14">
-        <v>0.1687914254786023</v>
+        <v>0.07963512779897997</v>
       </c>
       <c r="F14">
-        <v>1.545146761462775</v>
+        <v>0.6591310720776278</v>
       </c>
       <c r="G14">
-        <v>0.9033748791404292</v>
+        <v>0.3814885450481142</v>
       </c>
       <c r="H14">
-        <v>0.9612046468524369</v>
+        <v>0.3028077297286558</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2022051017752773</v>
+        <v>0.05989731131310805</v>
       </c>
       <c r="K14">
-        <v>2.149223626587798</v>
+        <v>5.897418533230621</v>
       </c>
       <c r="L14">
-        <v>0.1509316636694127</v>
+        <v>0.0467999921017892</v>
       </c>
       <c r="M14">
-        <v>0.617367939867691</v>
+        <v>1.250098782548363</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.764960145020751</v>
+        <v>1.391879959768403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4134062026060406</v>
+        <v>0.3242930874838805</v>
       </c>
       <c r="D15">
-        <v>0.1899302795268341</v>
+        <v>0.1729988551054049</v>
       </c>
       <c r="E15">
-        <v>0.1688046474786731</v>
+        <v>0.07929811311532831</v>
       </c>
       <c r="F15">
-        <v>1.546329772130221</v>
+        <v>0.6572559785066616</v>
       </c>
       <c r="G15">
-        <v>0.9043714692432587</v>
+        <v>0.3804568469671494</v>
       </c>
       <c r="H15">
-        <v>0.9622146976941366</v>
+        <v>0.3032339961146988</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2023997548847412</v>
+        <v>0.06005062550309859</v>
       </c>
       <c r="K15">
-        <v>2.129037978695067</v>
+        <v>5.833162256366109</v>
       </c>
       <c r="L15">
-        <v>0.1510193058617393</v>
+        <v>0.04686290669716797</v>
       </c>
       <c r="M15">
-        <v>0.6133190342795558</v>
+        <v>1.236588463728594</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.769153957642857</v>
+        <v>1.390533768509016</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4109821295916731</v>
+        <v>0.3094292279191393</v>
       </c>
       <c r="D16">
-        <v>0.1878033444877047</v>
+        <v>0.1641588767342057</v>
       </c>
       <c r="E16">
-        <v>0.1688985504337097</v>
+        <v>0.07740192195068829</v>
       </c>
       <c r="F16">
-        <v>1.553384449794038</v>
+        <v>0.6471950471740016</v>
       </c>
       <c r="G16">
-        <v>0.9102865297500671</v>
+        <v>0.3751229839836299</v>
       </c>
       <c r="H16">
-        <v>0.9681473758140839</v>
+        <v>0.3059939327729779</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2035399902954289</v>
+        <v>0.06097611524732116</v>
       </c>
       <c r="K16">
-        <v>2.013271093080391</v>
+        <v>5.465414024454901</v>
       </c>
       <c r="L16">
-        <v>0.1515330307430514</v>
+        <v>0.0472401393260391</v>
       </c>
       <c r="M16">
-        <v>0.5901212319279239</v>
+        <v>1.159303185607101</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.793918793980822</v>
+        <v>1.384706416334325</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4095425479228538</v>
+        <v>0.3004262344754238</v>
       </c>
       <c r="D17">
-        <v>0.1865112436413767</v>
+        <v>0.1587658634181111</v>
       </c>
       <c r="E17">
-        <v>0.1689723593824155</v>
+        <v>0.07626912969279687</v>
       </c>
       <c r="F17">
-        <v>1.557957874496189</v>
+        <v>0.6416141948668539</v>
       </c>
       <c r="G17">
-        <v>0.9140970818300431</v>
+        <v>0.3723491104111503</v>
       </c>
       <c r="H17">
-        <v>0.9719157967989105</v>
+        <v>0.3079621220391715</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2042615858920698</v>
+        <v>0.06158475313146283</v>
       </c>
       <c r="K17">
-        <v>1.942172878628696</v>
+        <v>5.240197398102168</v>
       </c>
       <c r="L17">
-        <v>0.151858443183837</v>
+        <v>0.04748624241234189</v>
       </c>
       <c r="M17">
-        <v>0.5758949303785101</v>
+        <v>1.112003733190363</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.809763791016991</v>
+        <v>1.382760964680187</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.408732029318827</v>
+        <v>0.2952886839300533</v>
       </c>
       <c r="D18">
-        <v>0.1857727568358314</v>
+        <v>0.1556744578837481</v>
       </c>
       <c r="E18">
-        <v>0.1690207754816662</v>
+        <v>0.07562843743574987</v>
       </c>
       <c r="F18">
-        <v>1.560678621277482</v>
+        <v>0.638613944833935</v>
       </c>
       <c r="G18">
-        <v>0.9163555682833504</v>
+        <v>0.3709298852348297</v>
       </c>
       <c r="H18">
-        <v>0.9741306641507919</v>
+        <v>0.3091921799161952</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2046847522997943</v>
+        <v>0.06194947132457784</v>
       </c>
       <c r="K18">
-        <v>1.901250959708079</v>
+        <v>5.110784098495856</v>
       </c>
       <c r="L18">
-        <v>0.1520493868582768</v>
+        <v>0.04763310771427953</v>
       </c>
       <c r="M18">
-        <v>0.5677142928501269</v>
+        <v>1.084836014945779</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.819117065703892</v>
+        <v>1.382219770102239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4084606086703104</v>
+        <v>0.2935560350710489</v>
       </c>
       <c r="D19">
-        <v>0.1855235268451736</v>
+        <v>0.1546295185429329</v>
       </c>
       <c r="E19">
-        <v>0.1690381933489817</v>
+        <v>0.07541334434996827</v>
       </c>
       <c r="F19">
-        <v>1.561615314623424</v>
+        <v>0.6376334305391111</v>
       </c>
       <c r="G19">
-        <v>0.9171317117424493</v>
+        <v>0.3704789919332185</v>
       </c>
       <c r="H19">
-        <v>0.9748887158079711</v>
+        <v>0.3096252049582944</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2048294246885369</v>
+        <v>0.06207543915282443</v>
       </c>
       <c r="K19">
-        <v>1.887390761187362</v>
+        <v>5.066987022145611</v>
       </c>
       <c r="L19">
-        <v>0.1521146859435767</v>
+        <v>0.04768373869346121</v>
       </c>
       <c r="M19">
-        <v>0.5649448234901797</v>
+        <v>1.075643623346323</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.822325068351546</v>
+        <v>1.382133819902663</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4096939843372525</v>
+        <v>0.3013803648454427</v>
       </c>
       <c r="D20">
-        <v>0.1866483046201353</v>
+        <v>0.1593388592940244</v>
       </c>
       <c r="E20">
-        <v>0.1689638853288535</v>
+        <v>0.07638858601370657</v>
       </c>
       <c r="F20">
-        <v>1.557461686163848</v>
+        <v>0.6421864148525103</v>
       </c>
       <c r="G20">
-        <v>0.9136845312347575</v>
+        <v>0.3726260022117884</v>
       </c>
       <c r="H20">
-        <v>0.97150973909784</v>
+        <v>0.3077423934958574</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2041839300974537</v>
+        <v>0.06151843845351834</v>
       </c>
       <c r="K20">
-        <v>1.94974433460186</v>
+        <v>5.264158763605849</v>
       </c>
       <c r="L20">
-        <v>0.1518234118826474</v>
+        <v>0.04745949257946158</v>
       </c>
       <c r="M20">
-        <v>0.5774091464676445</v>
+        <v>1.117034859926861</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.808052257236909</v>
+        <v>1.382907798098756</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4140467127634793</v>
+        <v>0.3281677884095302</v>
       </c>
       <c r="D21">
-        <v>0.1904833187032722</v>
+        <v>0.1752908846636672</v>
       </c>
       <c r="E21">
-        <v>0.1687854056188876</v>
+        <v>0.07979736888856692</v>
       </c>
       <c r="F21">
-        <v>1.544584346862401</v>
+        <v>0.6600426197811657</v>
       </c>
       <c r="G21">
-        <v>0.9029005983893228</v>
+        <v>0.3819937600243151</v>
       </c>
       <c r="H21">
-        <v>0.9607228560213485</v>
+        <v>0.3026090487058468</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2021121981586198</v>
+        <v>0.05982463682389039</v>
       </c>
       <c r="K21">
-        <v>2.1589015494406</v>
+        <v>5.928240235224678</v>
       </c>
       <c r="L21">
-        <v>0.1508898398056555</v>
+        <v>0.04677012122999891</v>
       </c>
       <c r="M21">
-        <v>0.6193095789638932</v>
+        <v>1.256579907690622</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.76296204863138</v>
+        <v>1.392559661206349</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4170465572915134</v>
+        <v>0.3460749678461355</v>
       </c>
       <c r="D22">
-        <v>0.193030974081509</v>
+        <v>0.1858214518498329</v>
       </c>
       <c r="E22">
-        <v>0.1687216738040433</v>
+        <v>0.08212918098469046</v>
       </c>
       <c r="F22">
-        <v>1.536972342285566</v>
+        <v>0.6737446962159552</v>
       </c>
       <c r="G22">
-        <v>0.896448693546219</v>
+        <v>0.3898354006943237</v>
       </c>
       <c r="H22">
-        <v>0.9540949381019459</v>
+        <v>0.3001938611253649</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2008304845330144</v>
+        <v>0.05885627834850027</v>
       </c>
       <c r="K22">
-        <v>2.295328146305053</v>
+        <v>6.363725144971454</v>
       </c>
       <c r="L22">
-        <v>0.1503132079495852</v>
+        <v>0.04636868987044629</v>
       </c>
       <c r="M22">
-        <v>0.6467072882766871</v>
+        <v>1.34819684443454</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.735630592048068</v>
+        <v>1.404471051020721</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4154313258383695</v>
+        <v>0.3364790802755522</v>
       </c>
       <c r="D23">
-        <v>0.1916674949447952</v>
+        <v>0.1801909071808581</v>
       </c>
       <c r="E23">
-        <v>0.1687508559403774</v>
+        <v>0.08087476849415864</v>
       </c>
       <c r="F23">
-        <v>1.540961412029176</v>
+        <v>0.6662374009131611</v>
       </c>
       <c r="G23">
-        <v>0.8998375860792009</v>
+        <v>0.3854852832715636</v>
       </c>
       <c r="H23">
-        <v>0.9575937708850546</v>
+        <v>0.3013935197784718</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2015079480940862</v>
+        <v>0.05936000909631289</v>
       </c>
       <c r="K23">
-        <v>2.222540321222539</v>
+        <v>6.131146264012273</v>
       </c>
       <c r="L23">
-        <v>0.150617905980365</v>
+        <v>0.04657835693616441</v>
       </c>
       <c r="M23">
-        <v>0.6320835885745311</v>
+        <v>1.299256982749739</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.750022143567037</v>
+        <v>1.397577862102565</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4096254666128516</v>
+        <v>0.3009488833315288</v>
       </c>
       <c r="D24">
-        <v>0.1865863257680189</v>
+        <v>0.1590797796069268</v>
       </c>
       <c r="E24">
-        <v>0.1689676978121497</v>
+        <v>0.07633454698175512</v>
       </c>
       <c r="F24">
-        <v>1.55768572813416</v>
+        <v>0.6419270673057795</v>
       </c>
       <c r="G24">
-        <v>0.9138708343403152</v>
+        <v>0.3725002743708075</v>
       </c>
       <c r="H24">
-        <v>0.9716931671704288</v>
+        <v>0.3078414266282863</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2042190123918211</v>
+        <v>0.06154837329669505</v>
       </c>
       <c r="K24">
-        <v>1.946321424321809</v>
+        <v>5.253325626186097</v>
       </c>
       <c r="L24">
-        <v>0.1518392375099893</v>
+        <v>0.04747156944927156</v>
       </c>
       <c r="M24">
-        <v>0.5767245747716885</v>
+        <v>1.114760209385921</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.80882528234919</v>
+        <v>1.382839621595537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4040319725911132</v>
+        <v>0.2641622277484288</v>
       </c>
       <c r="D25">
-        <v>0.1812852900546318</v>
+        <v>0.1367042074282949</v>
       </c>
       <c r="E25">
-        <v>0.169429687551208</v>
+        <v>0.07184869383786463</v>
       </c>
       <c r="F25">
-        <v>1.579175091724984</v>
+        <v>0.62363914459781</v>
       </c>
       <c r="G25">
-        <v>0.9315593200008578</v>
+        <v>0.3651562749313939</v>
       </c>
       <c r="H25">
-        <v>0.9887127130486988</v>
+        <v>0.3185099640718363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2074539598949272</v>
+        <v>0.06446468366986835</v>
       </c>
       <c r="K25">
-        <v>1.647310762050893</v>
+        <v>4.311071553212059</v>
       </c>
       <c r="L25">
-        <v>0.1533010341901679</v>
+        <v>0.04863727134914519</v>
       </c>
       <c r="M25">
-        <v>0.5170878799287308</v>
+        <v>0.9171509264803746</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.881414284765441</v>
+        <v>1.38880153026841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2382106838606433</v>
+        <v>0.1384171759339239</v>
       </c>
       <c r="D2">
-        <v>0.1205107893085682</v>
+        <v>0.06202504203686487</v>
       </c>
       <c r="E2">
-        <v>0.06886326703668111</v>
+        <v>6.823307158220416</v>
       </c>
       <c r="F2">
-        <v>0.6161900824442625</v>
+        <v>0.2765788349229084</v>
       </c>
       <c r="G2">
-        <v>0.3647456210125455</v>
+        <v>0.1896897386869298</v>
       </c>
       <c r="H2">
-        <v>0.3292333823810054</v>
+        <v>0.1709342107853349</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.07142962896107097</v>
       </c>
       <c r="J2">
-        <v>0.06705017778522837</v>
+        <v>0.1164503451301329</v>
       </c>
       <c r="K2">
-        <v>3.619416322817585</v>
+        <v>0.1964839942016887</v>
       </c>
       <c r="L2">
-        <v>0.04966079422927905</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7724355836211814</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.40975444526201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>33.23862759055703</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.599474698312946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2212444492666918</v>
+        <v>0.1228020045036402</v>
       </c>
       <c r="D3">
-        <v>0.1096852974837219</v>
+        <v>0.05485725326001756</v>
       </c>
       <c r="E3">
-        <v>0.0670213889766611</v>
+        <v>5.977535608235883</v>
       </c>
       <c r="F3">
-        <v>0.6145245843194189</v>
+        <v>0.2395261502724537</v>
       </c>
       <c r="G3">
-        <v>0.3672485292070391</v>
+        <v>0.1585055905932506</v>
       </c>
       <c r="H3">
-        <v>0.3381409922942424</v>
+        <v>0.1206866988925235</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0592255980100842</v>
       </c>
       <c r="J3">
-        <v>0.06905751224539181</v>
+        <v>0.1108139036923532</v>
       </c>
       <c r="K3">
-        <v>3.151176861822137</v>
+        <v>0.1752044774651083</v>
       </c>
       <c r="L3">
-        <v>0.05045350608572186</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6746614777507673</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.433262535490798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>28.4473541855192</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5210429582054985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2111073121742635</v>
+        <v>0.1132089923755828</v>
       </c>
       <c r="D4">
-        <v>0.1031038477153885</v>
+        <v>0.05038530758422155</v>
       </c>
       <c r="E4">
-        <v>0.06597482649722153</v>
+        <v>5.455876632083232</v>
       </c>
       <c r="F4">
-        <v>0.6150566091702672</v>
+        <v>0.2187644183237367</v>
       </c>
       <c r="G4">
-        <v>0.3700538114850005</v>
+        <v>0.1413797165506594</v>
       </c>
       <c r="H4">
-        <v>0.3443734861907544</v>
+        <v>0.09486515659945827</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05222834667450238</v>
       </c>
       <c r="J4">
-        <v>0.07041023025475646</v>
+        <v>0.1084026352161018</v>
       </c>
       <c r="K4">
-        <v>2.86368200023972</v>
+        <v>0.1633358919421468</v>
       </c>
       <c r="L4">
-        <v>0.05098785764118396</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6147206518605159</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.451972565184462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.60744075801961</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.4793605510388801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2070431822432255</v>
+        <v>0.1088955282726829</v>
       </c>
       <c r="D5">
-        <v>0.1004372396755713</v>
+        <v>0.04861755677662671</v>
       </c>
       <c r="E5">
-        <v>0.06556884739894286</v>
+        <v>5.24262736268301</v>
       </c>
       <c r="F5">
-        <v>0.6156482893483499</v>
+        <v>0.2103718967540829</v>
       </c>
       <c r="G5">
-        <v>0.3715013697722043</v>
+        <v>0.1344915546300172</v>
       </c>
       <c r="H5">
-        <v>0.3470986940879612</v>
+        <v>0.08534663493988237</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.04949437575526083</v>
       </c>
       <c r="J5">
-        <v>0.07099090039076472</v>
+        <v>0.107476494678636</v>
       </c>
       <c r="K5">
-        <v>2.746495768708513</v>
+        <v>0.1582971761618914</v>
       </c>
       <c r="L5">
-        <v>0.05121740925487472</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5903103725873038</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.46062774193085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.46965376335208</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.4626827202217214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2063722707391236</v>
+        <v>0.1076985323486994</v>
       </c>
       <c r="D6">
-        <v>0.09999535060448039</v>
+        <v>0.04840841902682058</v>
       </c>
       <c r="E6">
-        <v>0.06550265315868309</v>
+        <v>5.207174086547269</v>
       </c>
       <c r="F6">
-        <v>0.6157687235638747</v>
+        <v>0.2085576260129258</v>
       </c>
       <c r="G6">
-        <v>0.3717597059263653</v>
+        <v>0.1329514367337268</v>
       </c>
       <c r="H6">
-        <v>0.3475622273123449</v>
+        <v>0.08381278869317654</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.04907026089749689</v>
       </c>
       <c r="J6">
-        <v>0.07108907480307991</v>
+        <v>0.1071206309258841</v>
       </c>
       <c r="K6">
-        <v>2.727034417174934</v>
+        <v>0.1569118465785841</v>
       </c>
       <c r="L6">
-        <v>0.05125623375114152</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5862578335513575</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.462125915195216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.28171095011288</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.4586493064180672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2110522359398885</v>
+        <v>0.1118339515245879</v>
       </c>
       <c r="D7">
-        <v>0.1030678239789893</v>
+        <v>0.05059446933850609</v>
       </c>
       <c r="E7">
-        <v>0.06596926921483437</v>
+        <v>5.453001937314241</v>
       </c>
       <c r="F7">
-        <v>0.6150630915912316</v>
+        <v>0.2174265531854545</v>
       </c>
       <c r="G7">
-        <v>0.3700721201119279</v>
+        <v>0.1401268927267623</v>
       </c>
       <c r="H7">
-        <v>0.3444094969129594</v>
+        <v>0.09470996051957137</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05224161007688277</v>
       </c>
       <c r="J7">
-        <v>0.07041794325879636</v>
+        <v>0.1077975568699259</v>
       </c>
       <c r="K7">
-        <v>2.862101745864265</v>
+        <v>0.1617179000318139</v>
       </c>
       <c r="L7">
-        <v>0.05099090590766053</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6143913903741876</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.452085176054268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.59190182978762</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.4754343211694732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2323003295543202</v>
+        <v>0.131269940422051</v>
       </c>
       <c r="D8">
-        <v>0.1167639095027226</v>
+        <v>0.05987940666852865</v>
       </c>
       <c r="E8">
-        <v>0.06821024102270457</v>
+        <v>6.532125848027931</v>
       </c>
       <c r="F8">
-        <v>0.6152832554148873</v>
+        <v>0.2616926685146979</v>
       </c>
       <c r="G8">
-        <v>0.3653363566580481</v>
+        <v>0.1768957044530666</v>
       </c>
       <c r="H8">
-        <v>0.332142325288693</v>
+        <v>0.152354470345438</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.06714224625256104</v>
       </c>
       <c r="J8">
-        <v>0.06771686497536322</v>
+        <v>0.1134688819152032</v>
       </c>
       <c r="K8">
-        <v>3.457946445617836</v>
+        <v>0.1867744654790933</v>
       </c>
       <c r="L8">
-        <v>0.04992412861165008</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7386992463840798</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.416945103909697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>31.5610648178058</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5659293460666817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2763656202349978</v>
+        <v>0.1722790490448176</v>
       </c>
       <c r="D9">
-        <v>0.1441939540324455</v>
+        <v>0.07693463340628881</v>
       </c>
       <c r="E9">
-        <v>0.07330811438988505</v>
+        <v>8.635215364511851</v>
       </c>
       <c r="F9">
-        <v>0.6288132362829799</v>
+        <v>0.3703683728028793</v>
       </c>
       <c r="G9">
-        <v>0.3668070512844679</v>
+        <v>0.2713436238055991</v>
       </c>
       <c r="H9">
-        <v>0.3144498969840299</v>
+        <v>0.3211457849634023</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1014478180980873</v>
       </c>
       <c r="J9">
-        <v>0.06341169959526738</v>
+        <v>0.1357625070791642</v>
       </c>
       <c r="K9">
-        <v>4.62802519325794</v>
+        <v>0.2506537929649255</v>
       </c>
       <c r="L9">
-        <v>0.04821837937872431</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9835676578348327</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.384077339025495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>44.45946803645757</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8141041160282896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3104621743577525</v>
+        <v>0.2045859986449159</v>
       </c>
       <c r="D10">
-        <v>0.1647757189902137</v>
+        <v>0.08993050134389335</v>
       </c>
       <c r="E10">
-        <v>0.07753267690390686</v>
+        <v>10.42553561931001</v>
       </c>
       <c r="F10">
-        <v>0.6478608187665884</v>
+        <v>0.4630974776730099</v>
       </c>
       <c r="G10">
-        <v>0.3754638754289914</v>
+        <v>0.3552907356972668</v>
       </c>
       <c r="H10">
-        <v>0.3057828492690788</v>
+        <v>0.5150558685338069</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1325860596345096</v>
       </c>
       <c r="J10">
-        <v>0.06090867701988856</v>
+        <v>0.158153231675243</v>
       </c>
       <c r="K10">
-        <v>5.491130947369129</v>
+        <v>0.3040076759239838</v>
       </c>
       <c r="L10">
-        <v>0.04721278314822364</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.164705751342439</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.385008203392744</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>55.52160707514327</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.039899783688298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3264092882429566</v>
+        <v>0.2312455940477491</v>
       </c>
       <c r="D11">
-        <v>0.1742512805001724</v>
+        <v>0.1065053418049331</v>
       </c>
       <c r="E11">
-        <v>0.07957054196332791</v>
+        <v>13.54111888395073</v>
       </c>
       <c r="F11">
-        <v>0.6587697921217597</v>
+        <v>0.4627481953383636</v>
       </c>
       <c r="G11">
-        <v>0.3812889636407135</v>
+        <v>0.3581651029545299</v>
       </c>
       <c r="H11">
-        <v>0.3028879947325436</v>
+        <v>0.6765899978077101</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1547327714585975</v>
       </c>
       <c r="J11">
-        <v>0.05992644536217639</v>
+        <v>0.1447010938465638</v>
       </c>
       <c r="K11">
-        <v>5.885128794182094</v>
+        <v>0.2916634817844681</v>
       </c>
       <c r="L11">
-        <v>0.04681195808338323</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.247514638803295</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.391615068294044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>61.50561971062609</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.018482218945394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3325162703150681</v>
+        <v>0.2507795691699499</v>
       </c>
       <c r="D12">
-        <v>0.1778573372955918</v>
+        <v>0.1182652970670972</v>
       </c>
       <c r="E12">
-        <v>0.08035998269740929</v>
+        <v>16.08788468300179</v>
       </c>
       <c r="F12">
-        <v>0.6632472955659807</v>
+        <v>0.4468585809450616</v>
       </c>
       <c r="G12">
-        <v>0.3837878405731914</v>
+        <v>0.3485351263356051</v>
       </c>
       <c r="H12">
-        <v>0.3019521436973918</v>
+        <v>0.8031649309220938</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1678771922059754</v>
       </c>
       <c r="J12">
-        <v>0.05957817567858115</v>
+        <v>0.1307710074851727</v>
       </c>
       <c r="K12">
-        <v>6.034574716728514</v>
+        <v>0.2738732022294457</v>
       </c>
       <c r="L12">
-        <v>0.04666857733929319</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.27894292301842</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.395072398769855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>64.16587950093839</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9692815998514277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3311979011572532</v>
+        <v>0.2628120168545962</v>
       </c>
       <c r="D13">
-        <v>0.1770798862968803</v>
+        <v>0.1274641193291188</v>
       </c>
       <c r="E13">
-        <v>0.08018915575057761</v>
+        <v>18.30139079162376</v>
       </c>
       <c r="F13">
-        <v>0.6622671768415174</v>
+        <v>0.4117001868008785</v>
       </c>
       <c r="G13">
-        <v>0.3832362677787415</v>
+        <v>0.3219827266564934</v>
       </c>
       <c r="H13">
-        <v>0.3021464018539461</v>
+        <v>0.8880388589448529</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1732527758855937</v>
       </c>
       <c r="J13">
-        <v>0.05965210878051508</v>
+        <v>0.1126569853479111</v>
       </c>
       <c r="K13">
-        <v>6.00237699966857</v>
+        <v>0.2456710312181301</v>
       </c>
       <c r="L13">
-        <v>0.04669907889142699</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.272170955018709</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.394284200746256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>63.96632379496236</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8752396946606638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3269103151055504</v>
+        <v>0.2672610723373765</v>
       </c>
       <c r="D14">
-        <v>0.1745475850210738</v>
+        <v>0.1328716161032872</v>
       </c>
       <c r="E14">
-        <v>0.07963512779897997</v>
+        <v>19.70831077722494</v>
       </c>
       <c r="F14">
-        <v>0.6591310720776278</v>
+        <v>0.3779798929741389</v>
       </c>
       <c r="G14">
-        <v>0.3814885450481142</v>
+        <v>0.2954882436580775</v>
       </c>
       <c r="H14">
-        <v>0.3028077297286558</v>
+        <v>0.9288406865166223</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1732978516693846</v>
       </c>
       <c r="J14">
-        <v>0.05989731131310805</v>
+        <v>0.09794273589999136</v>
       </c>
       <c r="K14">
-        <v>5.897418533230621</v>
+        <v>0.2208723039583873</v>
       </c>
       <c r="L14">
-        <v>0.0467999921017892</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.250098782548363</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.391879959768403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>62.50225260499502</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7882914388969908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3242930874838805</v>
+        <v>0.265755476354542</v>
       </c>
       <c r="D15">
-        <v>0.1729988551054049</v>
+        <v>0.1336174553364202</v>
       </c>
       <c r="E15">
-        <v>0.07929811311532831</v>
+        <v>19.92808499020589</v>
       </c>
       <c r="F15">
-        <v>0.6572559785066616</v>
+        <v>0.3646820751164981</v>
       </c>
       <c r="G15">
-        <v>0.3804568469671494</v>
+        <v>0.2842128616980872</v>
       </c>
       <c r="H15">
-        <v>0.3032339961146988</v>
+        <v>0.9239279421498736</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1713538021782917</v>
       </c>
       <c r="J15">
-        <v>0.06005062550309859</v>
+        <v>0.09298093627987214</v>
       </c>
       <c r="K15">
-        <v>5.833162256366109</v>
+        <v>0.2117643888070795</v>
       </c>
       <c r="L15">
-        <v>0.04686290669716797</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.236588463728594</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.390533768509016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>61.53007963665465</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7539561177923986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3094292279191393</v>
+        <v>0.2457326055306623</v>
       </c>
       <c r="D16">
-        <v>0.1641588767342057</v>
+        <v>0.1263610678684302</v>
       </c>
       <c r="E16">
-        <v>0.07740192195068829</v>
+        <v>18.54670597095378</v>
       </c>
       <c r="F16">
-        <v>0.6471950471740016</v>
+        <v>0.3213793648416896</v>
       </c>
       <c r="G16">
-        <v>0.3751229839836299</v>
+        <v>0.2418115515566797</v>
       </c>
       <c r="H16">
-        <v>0.3059939327729779</v>
+        <v>0.7730254880780478</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1528078584555121</v>
       </c>
       <c r="J16">
-        <v>0.06097611524732116</v>
+        <v>0.08199931007125372</v>
       </c>
       <c r="K16">
-        <v>5.465414024454901</v>
+        <v>0.1880137195492253</v>
       </c>
       <c r="L16">
-        <v>0.0472401393260391</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.159303185607101</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.384706416334325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>55.93442601277593</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6405928313792515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3004262344754238</v>
+        <v>0.2287123118358494</v>
       </c>
       <c r="D17">
-        <v>0.1587658634181111</v>
+        <v>0.1178432260930578</v>
       </c>
       <c r="E17">
-        <v>0.07626912969279687</v>
+        <v>16.76590839046645</v>
       </c>
       <c r="F17">
-        <v>0.6416141948668539</v>
+        <v>0.3087348977510729</v>
       </c>
       <c r="G17">
-        <v>0.3723491104111503</v>
+        <v>0.2262402432052539</v>
       </c>
       <c r="H17">
-        <v>0.3079621220391715</v>
+        <v>0.6483731977616145</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.13971083460578</v>
       </c>
       <c r="J17">
-        <v>0.06158475313146283</v>
+        <v>0.08262906004667769</v>
       </c>
       <c r="K17">
-        <v>5.240197398102168</v>
+        <v>0.1844270300618795</v>
       </c>
       <c r="L17">
-        <v>0.04748624241234189</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.112003733190363</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.382760964680187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>52.66845698945974</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6085263301521167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2952886839300533</v>
+        <v>0.2139148358920409</v>
       </c>
       <c r="D18">
-        <v>0.1556744578837481</v>
+        <v>0.1075012168993368</v>
       </c>
       <c r="E18">
-        <v>0.07562843743574987</v>
+        <v>14.56005425651819</v>
       </c>
       <c r="F18">
-        <v>0.638613944833935</v>
+        <v>0.321085548464545</v>
       </c>
       <c r="G18">
-        <v>0.3709298852348297</v>
+        <v>0.2325534266120428</v>
       </c>
       <c r="H18">
-        <v>0.3091921799161952</v>
+        <v>0.5358152612435347</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1295180732817229</v>
       </c>
       <c r="J18">
-        <v>0.06194947132457784</v>
+        <v>0.09349704085954613</v>
       </c>
       <c r="K18">
-        <v>5.110784098495856</v>
+        <v>0.1984848328316922</v>
       </c>
       <c r="L18">
-        <v>0.04763310771427953</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.084836014945779</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.382219770102239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>50.77647685520515</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.644346596394513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2935560350710489</v>
+        <v>0.1998246698852597</v>
       </c>
       <c r="D19">
-        <v>0.1546295185429329</v>
+        <v>0.09744855369719119</v>
       </c>
       <c r="E19">
-        <v>0.07541334434996827</v>
+        <v>12.32718948782406</v>
       </c>
       <c r="F19">
-        <v>0.6376334305391111</v>
+        <v>0.3515410087926227</v>
       </c>
       <c r="G19">
-        <v>0.3704789919332185</v>
+        <v>0.2561532833942479</v>
       </c>
       <c r="H19">
-        <v>0.3096252049582944</v>
+        <v>0.4569874395956361</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1227672310013173</v>
       </c>
       <c r="J19">
-        <v>0.06207543915282443</v>
+        <v>0.1115366345077646</v>
       </c>
       <c r="K19">
-        <v>5.066987022145611</v>
+        <v>0.2238919229676242</v>
       </c>
       <c r="L19">
-        <v>0.04768373869346121</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.075643623346323</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.382133819902663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>50.04475521008987</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7319068016084174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3013803648454427</v>
+        <v>0.1917817476394816</v>
       </c>
       <c r="D20">
-        <v>0.1593388592940244</v>
+        <v>0.08738415334617144</v>
       </c>
       <c r="E20">
-        <v>0.07638858601370657</v>
+        <v>9.962867556242628</v>
       </c>
       <c r="F20">
-        <v>0.6421864148525103</v>
+        <v>0.4324843561428082</v>
       </c>
       <c r="G20">
-        <v>0.3726260022117884</v>
+        <v>0.327022595647648</v>
       </c>
       <c r="H20">
-        <v>0.3077423934958574</v>
+        <v>0.4563799896475658</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1240096425289892</v>
       </c>
       <c r="J20">
-        <v>0.06151843845351834</v>
+        <v>0.1492295056425803</v>
       </c>
       <c r="K20">
-        <v>5.264158763605849</v>
+        <v>0.2834094464935077</v>
       </c>
       <c r="L20">
-        <v>0.04745949257946158</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.117034859926861</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.382907798098756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>52.43728494710155</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9610350728121091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3281677884095302</v>
+        <v>0.2164507176283195</v>
       </c>
       <c r="D21">
-        <v>0.1752908846636672</v>
+        <v>0.09494861408411026</v>
       </c>
       <c r="E21">
-        <v>0.07979736888856692</v>
+        <v>10.97679586149476</v>
       </c>
       <c r="F21">
-        <v>0.6600426197811657</v>
+        <v>0.5233692916942587</v>
       </c>
       <c r="G21">
-        <v>0.3819937600243151</v>
+        <v>0.4109189037658609</v>
       </c>
       <c r="H21">
-        <v>0.3026090487058468</v>
+        <v>0.644365479253409</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.149920656850357</v>
       </c>
       <c r="J21">
-        <v>0.05982463682389039</v>
+        <v>0.1764459971760033</v>
       </c>
       <c r="K21">
-        <v>5.928240235224678</v>
+        <v>0.3386768464078855</v>
       </c>
       <c r="L21">
-        <v>0.04677012122999891</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.256579907690622</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.392559661206349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>61.89965571129449</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.196586181518057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3460749678461355</v>
+        <v>0.2361561369056346</v>
       </c>
       <c r="D22">
-        <v>0.1858214518498329</v>
+        <v>0.099740650879653</v>
       </c>
       <c r="E22">
-        <v>0.08212918098469046</v>
+        <v>11.77404091852856</v>
       </c>
       <c r="F22">
-        <v>0.6737446962159552</v>
+        <v>0.5903462985154704</v>
       </c>
       <c r="G22">
-        <v>0.3898354006943237</v>
+        <v>0.4743814275007736</v>
       </c>
       <c r="H22">
-        <v>0.3001938611253649</v>
+        <v>0.8101919088055993</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1696633084953696</v>
       </c>
       <c r="J22">
-        <v>0.05885627834850027</v>
+        <v>0.1975713291494827</v>
       </c>
       <c r="K22">
-        <v>6.363725144971454</v>
+        <v>0.3802075394635835</v>
       </c>
       <c r="L22">
-        <v>0.04636868987044629</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.34819684443454</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.404471051020721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>69.12089583338246</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.375851778152708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3364790802755522</v>
+        <v>0.2270597706230149</v>
       </c>
       <c r="D23">
-        <v>0.1801909071808581</v>
+        <v>0.09696246591325774</v>
       </c>
       <c r="E23">
-        <v>0.08087476849415864</v>
+        <v>11.34663853172171</v>
       </c>
       <c r="F23">
-        <v>0.6662374009131611</v>
+        <v>0.5551770040487156</v>
       </c>
       <c r="G23">
-        <v>0.3854852832715636</v>
+        <v>0.4409445555671141</v>
       </c>
       <c r="H23">
-        <v>0.3013935197784718</v>
+        <v>0.7164655953650794</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1587735000206374</v>
       </c>
       <c r="J23">
-        <v>0.05936000909631289</v>
+        <v>0.1866044647835849</v>
       </c>
       <c r="K23">
-        <v>6.131146264012273</v>
+        <v>0.3594351988643112</v>
       </c>
       <c r="L23">
-        <v>0.04657835693616441</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.299256982749739</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.397577862102565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>65.13680679550515</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.281737944639389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3009488833315288</v>
+        <v>0.1927352550401054</v>
       </c>
       <c r="D24">
-        <v>0.1590797796069268</v>
+        <v>0.08591339601795056</v>
       </c>
       <c r="E24">
-        <v>0.07633454698175512</v>
+        <v>9.757685485843894</v>
       </c>
       <c r="F24">
-        <v>0.6419270673057795</v>
+        <v>0.4381403016009315</v>
       </c>
       <c r="G24">
-        <v>0.3725002743708075</v>
+        <v>0.3322379495299685</v>
       </c>
       <c r="H24">
-        <v>0.3078414266282863</v>
+        <v>0.4526512415729904</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1231067238704364</v>
       </c>
       <c r="J24">
-        <v>0.06154837329669505</v>
+        <v>0.1525321720352792</v>
       </c>
       <c r="K24">
-        <v>5.253325626186097</v>
+        <v>0.2892868482394491</v>
       </c>
       <c r="L24">
-        <v>0.04747156944927156</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.114760209385921</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.382839621595537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>52.28299292920684</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9789793722272009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2641622277484288</v>
+        <v>0.1586309926918403</v>
       </c>
       <c r="D25">
-        <v>0.1367042074282949</v>
+        <v>0.07285174660150062</v>
       </c>
       <c r="E25">
-        <v>0.07184869383786463</v>
+        <v>8.066687686447864</v>
       </c>
       <c r="F25">
-        <v>0.62363914459781</v>
+        <v>0.3359158874640826</v>
       </c>
       <c r="G25">
-        <v>0.3651562749313939</v>
+        <v>0.2407186380291861</v>
       </c>
       <c r="H25">
-        <v>0.3185099640718363</v>
+        <v>0.2667532919736022</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.09149344591087161</v>
       </c>
       <c r="J25">
-        <v>0.06446468366986835</v>
+        <v>0.1272395036113494</v>
       </c>
       <c r="K25">
-        <v>4.311071553212059</v>
+        <v>0.2287585500735645</v>
       </c>
       <c r="L25">
-        <v>0.04863727134914519</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9171509264803746</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.38880153026841</v>
+        <v>40.77596335484793</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7309927092646689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1384171759339239</v>
+        <v>0.1255748049233389</v>
       </c>
       <c r="D2">
-        <v>0.06202504203686487</v>
+        <v>0.06781260189201532</v>
       </c>
       <c r="E2">
-        <v>6.823307158220416</v>
+        <v>6.825583462869275</v>
       </c>
       <c r="F2">
-        <v>0.2765788349229084</v>
+        <v>0.2484887474515318</v>
       </c>
       <c r="G2">
-        <v>0.1896897386869298</v>
+        <v>0.164757618479932</v>
       </c>
       <c r="H2">
-        <v>0.1709342107853349</v>
+        <v>0.164710529687385</v>
       </c>
       <c r="I2">
-        <v>0.07142962896107097</v>
+        <v>0.05740854932916362</v>
       </c>
       <c r="J2">
-        <v>0.1164503451301329</v>
+        <v>0.1486148668842731</v>
       </c>
       <c r="K2">
-        <v>0.1964839942016887</v>
+        <v>0.1673269967343636</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1234736983552978</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04857653916495863</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.23862759055703</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.599474698312946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>33.20259272481599</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.5190307935179561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1228020045036402</v>
+        <v>0.1122316209124534</v>
       </c>
       <c r="D3">
-        <v>0.05485725326001756</v>
+        <v>0.05957115474210184</v>
       </c>
       <c r="E3">
-        <v>5.977535608235883</v>
+        <v>5.978318703793889</v>
       </c>
       <c r="F3">
-        <v>0.2395261502724537</v>
+        <v>0.2192051802052291</v>
       </c>
       <c r="G3">
-        <v>0.1585055905932506</v>
+        <v>0.1371930086318898</v>
       </c>
       <c r="H3">
-        <v>0.1206866988925235</v>
+        <v>0.1161682740150507</v>
       </c>
       <c r="I3">
-        <v>0.0592255980100842</v>
+        <v>0.04806297725263509</v>
       </c>
       <c r="J3">
-        <v>0.1108139036923532</v>
+        <v>0.147439452326708</v>
       </c>
       <c r="K3">
-        <v>0.1752044774651083</v>
+        <v>0.1542874540705874</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1262326806737732</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03431966134726139</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.4473541855192</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.5210429582054985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>28.42247950541514</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.464825747746815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1132089923755828</v>
+        <v>0.1041238059170482</v>
       </c>
       <c r="D4">
-        <v>0.05038530758422155</v>
+        <v>0.05444768971990044</v>
       </c>
       <c r="E4">
-        <v>5.455876632083232</v>
+        <v>5.455937194843642</v>
       </c>
       <c r="F4">
-        <v>0.2187644183237367</v>
+        <v>0.2028315011277328</v>
       </c>
       <c r="G4">
-        <v>0.1413797165506594</v>
+        <v>0.1221381108563833</v>
       </c>
       <c r="H4">
-        <v>0.09486515659945827</v>
+        <v>0.09123190006795134</v>
       </c>
       <c r="I4">
-        <v>0.05222834667450238</v>
+        <v>0.04268650286731557</v>
       </c>
       <c r="J4">
-        <v>0.1084026352161018</v>
+        <v>0.1473001785408599</v>
       </c>
       <c r="K4">
-        <v>0.1633358919421468</v>
+        <v>0.1470726786436067</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.128034197505567</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0266270239881834</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.60744075801961</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.4793605510388801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.58801913552151</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.4366839141426624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1088955282726829</v>
+        <v>0.1005127552258926</v>
       </c>
       <c r="D5">
-        <v>0.04861755677662671</v>
+        <v>0.05241690426356627</v>
       </c>
       <c r="E5">
-        <v>5.24262736268301</v>
+        <v>5.242433047492085</v>
       </c>
       <c r="F5">
-        <v>0.2103718967540829</v>
+        <v>0.1961694052250564</v>
       </c>
       <c r="G5">
-        <v>0.1344915546300172</v>
+        <v>0.1160934248307797</v>
       </c>
       <c r="H5">
-        <v>0.08534663493988237</v>
+        <v>0.08204291957930288</v>
       </c>
       <c r="I5">
-        <v>0.04949437575526083</v>
+        <v>0.04060238091724155</v>
       </c>
       <c r="J5">
-        <v>0.107476494678636</v>
+        <v>0.1472042469226267</v>
       </c>
       <c r="K5">
-        <v>0.1582971761618914</v>
+        <v>0.1438903973070076</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1285876004571023</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02362299830646286</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.46965376335208</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.4626827202217214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.45219788047581</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.4253300122244781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1076985323486994</v>
+        <v>0.09953125236395977</v>
       </c>
       <c r="D6">
-        <v>0.04840841902682058</v>
+        <v>0.05216459745290791</v>
       </c>
       <c r="E6">
-        <v>5.207174086547269</v>
+        <v>5.206940866244992</v>
       </c>
       <c r="F6">
-        <v>0.2085576260129258</v>
+        <v>0.1946689454009984</v>
       </c>
       <c r="G6">
-        <v>0.1329514367337268</v>
+        <v>0.1147318413566367</v>
       </c>
       <c r="H6">
-        <v>0.08381278869317654</v>
+        <v>0.08056293730923425</v>
       </c>
       <c r="I6">
-        <v>0.04907026089749689</v>
+        <v>0.0403074945916817</v>
       </c>
       <c r="J6">
-        <v>0.1071206309258841</v>
+        <v>0.1469892265616721</v>
       </c>
       <c r="K6">
-        <v>0.1569118465785841</v>
+        <v>0.1428682429083459</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.12843151468239</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.022999380194479</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.28171095011288</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4586493064180672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.26457190690633</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.4222809633808424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1118339515245879</v>
+        <v>0.1031432251532678</v>
       </c>
       <c r="D7">
-        <v>0.05059446933850609</v>
+        <v>0.05479592895039787</v>
       </c>
       <c r="E7">
-        <v>5.453001937314241</v>
+        <v>5.453063816498911</v>
       </c>
       <c r="F7">
-        <v>0.2174265531854545</v>
+        <v>0.2009252374702157</v>
       </c>
       <c r="G7">
-        <v>0.1401268927267623</v>
+        <v>0.1231057786570915</v>
       </c>
       <c r="H7">
-        <v>0.09470996051957137</v>
+        <v>0.09107095241525975</v>
       </c>
       <c r="I7">
-        <v>0.05224161007688277</v>
+        <v>0.04274910519278308</v>
       </c>
       <c r="J7">
-        <v>0.1077975568699259</v>
+        <v>0.1434932136881244</v>
       </c>
       <c r="K7">
-        <v>0.1617179000318139</v>
+        <v>0.1451880938687182</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1271535189205011</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02605320066014549</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.59190182978762</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.4754343211694732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.57245054019035</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.4311478248233698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.131269940422051</v>
+        <v>0.1199502701548667</v>
       </c>
       <c r="D8">
-        <v>0.05987940666852865</v>
+        <v>0.06577180215256107</v>
       </c>
       <c r="E8">
-        <v>6.532125848027931</v>
+        <v>6.533863735816396</v>
       </c>
       <c r="F8">
-        <v>0.2616926685146979</v>
+        <v>0.2342127069006779</v>
       </c>
       <c r="G8">
-        <v>0.1768957044530666</v>
+        <v>0.1605632383104449</v>
       </c>
       <c r="H8">
-        <v>0.152354470345438</v>
+        <v>0.1467116739652425</v>
       </c>
       <c r="I8">
-        <v>0.06714224625256104</v>
+        <v>0.05414865399504976</v>
       </c>
       <c r="J8">
-        <v>0.1134688819152032</v>
+        <v>0.1366334785713832</v>
       </c>
       <c r="K8">
-        <v>0.1867744654790933</v>
+        <v>0.1592612107598086</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1229057091986228</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04230870493039873</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.5610648178058</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.5659293460666817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>31.52896398364368</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.487866478618173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1722790490448176</v>
+        <v>0.1558398326856221</v>
       </c>
       <c r="D9">
-        <v>0.07693463340628881</v>
+        <v>0.08566871888604055</v>
       </c>
       <c r="E9">
-        <v>8.635215364511851</v>
+        <v>8.642467926989951</v>
       </c>
       <c r="F9">
-        <v>0.3703683728028793</v>
+        <v>0.3198356964066704</v>
       </c>
       <c r="G9">
-        <v>0.2713436238055991</v>
+        <v>0.2470712759669595</v>
       </c>
       <c r="H9">
-        <v>0.3211457849634023</v>
+        <v>0.3097350347321637</v>
       </c>
       <c r="I9">
-        <v>0.1014478180980873</v>
+        <v>0.08016122521908464</v>
       </c>
       <c r="J9">
-        <v>0.1357625070791642</v>
+        <v>0.1409253501071817</v>
       </c>
       <c r="K9">
-        <v>0.2506537929649255</v>
+        <v>0.1989316997505313</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1174971776688949</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08520661489639281</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>44.45946803645757</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.8141041160282896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>44.3847990826672</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.6630117775579265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2045859986449159</v>
+        <v>0.1866451175525299</v>
       </c>
       <c r="D10">
-        <v>0.08993050134389335</v>
+        <v>0.1015704075129662</v>
       </c>
       <c r="E10">
-        <v>10.42553561931001</v>
+        <v>10.43898442397341</v>
       </c>
       <c r="F10">
-        <v>0.4630974776730099</v>
+        <v>0.3883816034305951</v>
       </c>
       <c r="G10">
-        <v>0.3552907356972668</v>
+        <v>0.3385561007574438</v>
       </c>
       <c r="H10">
-        <v>0.5150558685338069</v>
+        <v>0.4966137185293427</v>
       </c>
       <c r="I10">
-        <v>0.1325860596345096</v>
+        <v>0.1034949531446907</v>
       </c>
       <c r="J10">
-        <v>0.158153231675243</v>
+        <v>0.1273915152252698</v>
       </c>
       <c r="K10">
-        <v>0.3040076759239838</v>
+        <v>0.228852502773023</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1118725322981966</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1224500704719844</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>55.52160707514327</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.039899783688298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>55.38420950804425</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8118334409471117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2312455940477491</v>
+        <v>0.2181245596381345</v>
       </c>
       <c r="D11">
-        <v>0.1065053418049331</v>
+        <v>0.1207282601872919</v>
       </c>
       <c r="E11">
-        <v>13.54111888395073</v>
+        <v>13.54876193022636</v>
       </c>
       <c r="F11">
-        <v>0.4627481953383636</v>
+        <v>0.374670468750729</v>
       </c>
       <c r="G11">
-        <v>0.3581651029545299</v>
+        <v>0.375274483975474</v>
       </c>
       <c r="H11">
-        <v>0.6765899978077101</v>
+        <v>0.6521206590135193</v>
       </c>
       <c r="I11">
-        <v>0.1547327714585975</v>
+        <v>0.1199783668085024</v>
       </c>
       <c r="J11">
-        <v>0.1447010938465638</v>
+        <v>0.0750997200757908</v>
       </c>
       <c r="K11">
-        <v>0.2916634817844681</v>
+        <v>0.2081545476529669</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09558139198092519</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1298682165664182</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>61.50561971062609</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.018482218945394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>61.3105712679336</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.751669086145796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2507795691699499</v>
+        <v>0.2417304252092691</v>
       </c>
       <c r="D12">
-        <v>0.1182652970670972</v>
+        <v>0.133507175173861</v>
       </c>
       <c r="E12">
-        <v>16.08788468300179</v>
+        <v>16.08588760910294</v>
       </c>
       <c r="F12">
-        <v>0.4468585809450616</v>
+        <v>0.355037830613405</v>
       </c>
       <c r="G12">
-        <v>0.3485351263356051</v>
+        <v>0.3824256503685177</v>
       </c>
       <c r="H12">
-        <v>0.8031649309220938</v>
+        <v>0.7747403259886738</v>
       </c>
       <c r="I12">
-        <v>0.1678771922059754</v>
+        <v>0.1296739117946784</v>
       </c>
       <c r="J12">
-        <v>0.1307710074851727</v>
+        <v>0.04976340283678837</v>
       </c>
       <c r="K12">
-        <v>0.2738732022294457</v>
+        <v>0.1895382867318425</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08483188481546833</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1305563740129934</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>64.16587950093839</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9692815998514277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>63.93388171188008</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6930618142643254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2628120168545962</v>
+        <v>0.2574209092902535</v>
       </c>
       <c r="D13">
-        <v>0.1274641193291188</v>
+        <v>0.1420297175540384</v>
       </c>
       <c r="E13">
-        <v>18.30139079162376</v>
+        <v>18.2867484214791</v>
       </c>
       <c r="F13">
-        <v>0.4117001868008785</v>
+        <v>0.3256391370434528</v>
       </c>
       <c r="G13">
-        <v>0.3219827266564934</v>
+        <v>0.3556077586663235</v>
       </c>
       <c r="H13">
-        <v>0.8880388589448529</v>
+        <v>0.8582683970289509</v>
       </c>
       <c r="I13">
-        <v>0.1732527758855937</v>
+        <v>0.1337514237912805</v>
       </c>
       <c r="J13">
-        <v>0.1126569853479111</v>
+        <v>0.04055553015671265</v>
       </c>
       <c r="K13">
-        <v>0.2456710312181301</v>
+        <v>0.1682030725739097</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07658502490298957</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1242793467320489</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>63.96632379496236</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8752396946606638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>63.72777325046667</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6181162707475494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2672610723373765</v>
+        <v>0.2643308014496171</v>
       </c>
       <c r="D14">
-        <v>0.1328716161032872</v>
+        <v>0.1461540047113488</v>
       </c>
       <c r="E14">
-        <v>19.70831077722494</v>
+        <v>19.68394121574096</v>
       </c>
       <c r="F14">
-        <v>0.3779798929741389</v>
+        <v>0.299916416135531</v>
       </c>
       <c r="G14">
-        <v>0.2954882436580775</v>
+        <v>0.3227242755592243</v>
       </c>
       <c r="H14">
-        <v>0.9288406865166223</v>
+        <v>0.8994778237091765</v>
       </c>
       <c r="I14">
-        <v>0.1732978516693846</v>
+        <v>0.133948096404688</v>
       </c>
       <c r="J14">
-        <v>0.09794273589999136</v>
+        <v>0.03935954776863326</v>
       </c>
       <c r="K14">
-        <v>0.2208723039583873</v>
+        <v>0.1514556049959346</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07165912607571556</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1165416622420992</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>62.50225260499502</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7882914388969908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>62.27469883779986</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5560263490138482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.265755476354542</v>
+        <v>0.2633590491592059</v>
       </c>
       <c r="D15">
-        <v>0.1336174553364202</v>
+        <v>0.1462531526841957</v>
       </c>
       <c r="E15">
-        <v>19.92808499020589</v>
+        <v>19.90158015813989</v>
       </c>
       <c r="F15">
-        <v>0.3646820751164981</v>
+        <v>0.290449539018546</v>
       </c>
       <c r="G15">
-        <v>0.2842128616980872</v>
+        <v>0.3074721026902338</v>
       </c>
       <c r="H15">
-        <v>0.9239279421498736</v>
+        <v>0.8953603857506209</v>
       </c>
       <c r="I15">
-        <v>0.1713538021782917</v>
+        <v>0.1326153073061365</v>
       </c>
       <c r="J15">
-        <v>0.09298093627987214</v>
+        <v>0.04117073691753959</v>
       </c>
       <c r="K15">
-        <v>0.2117643888070795</v>
+        <v>0.145921591572435</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07069173225894687</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1127365947092187</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>61.53007963665465</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7539561177923986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>61.31234707550925</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.533377730118616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2457326055306623</v>
+        <v>0.2415293214986747</v>
       </c>
       <c r="D16">
-        <v>0.1263610678684302</v>
+        <v>0.1362680511375061</v>
       </c>
       <c r="E16">
-        <v>18.54670597095378</v>
+        <v>18.52361573498706</v>
       </c>
       <c r="F16">
-        <v>0.3213793648416896</v>
+        <v>0.2634725520169567</v>
       </c>
       <c r="G16">
-        <v>0.2418115515566797</v>
+        <v>0.2451413164680858</v>
       </c>
       <c r="H16">
-        <v>0.7730254880780478</v>
+        <v>0.7504104467026167</v>
       </c>
       <c r="I16">
-        <v>0.1528078584555121</v>
+        <v>0.1191131202480413</v>
       </c>
       <c r="J16">
-        <v>0.08199931007125372</v>
+        <v>0.06243747543520328</v>
       </c>
       <c r="K16">
-        <v>0.1880137195492253</v>
+        <v>0.1359295902808562</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07429870684546103</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.09613198129811451</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>55.93442601277593</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6405928313792515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>55.77386880820637</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4693928417953828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2287123118358494</v>
+        <v>0.2222731555762678</v>
       </c>
       <c r="D17">
-        <v>0.1178432260930578</v>
+        <v>0.1266883132845038</v>
       </c>
       <c r="E17">
-        <v>16.76590839046645</v>
+        <v>16.74925424480108</v>
       </c>
       <c r="F17">
-        <v>0.3087348977510729</v>
+        <v>0.2579048786929405</v>
       </c>
       <c r="G17">
-        <v>0.2262402432052539</v>
+        <v>0.219710597480649</v>
       </c>
       <c r="H17">
-        <v>0.6483731977616145</v>
+        <v>0.629271283763984</v>
       </c>
       <c r="I17">
-        <v>0.13971083460578</v>
+        <v>0.1094360182646463</v>
       </c>
       <c r="J17">
-        <v>0.08262906004667769</v>
+        <v>0.07932115118195782</v>
       </c>
       <c r="K17">
-        <v>0.1844270300618795</v>
+        <v>0.137764246617099</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07981734958953268</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08814146318533744</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>52.66845698945974</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6085263301521167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>52.53689617146506</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.458905805084413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2139148358920409</v>
+        <v>0.204180570022281</v>
       </c>
       <c r="D18">
-        <v>0.1075012168993368</v>
+        <v>0.1161490512763379</v>
       </c>
       <c r="E18">
-        <v>14.56005425651819</v>
+        <v>14.5517394077915</v>
       </c>
       <c r="F18">
-        <v>0.321085548464545</v>
+        <v>0.2718513474770035</v>
       </c>
       <c r="G18">
-        <v>0.2325534266120428</v>
+        <v>0.2181892749930086</v>
       </c>
       <c r="H18">
-        <v>0.5358152612435347</v>
+        <v>0.5190623588254724</v>
       </c>
       <c r="I18">
-        <v>0.1295180732817229</v>
+        <v>0.1017189175591229</v>
       </c>
       <c r="J18">
-        <v>0.09349704085954613</v>
+        <v>0.09797554572023159</v>
       </c>
       <c r="K18">
-        <v>0.1984848328316922</v>
+        <v>0.1517278897155983</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08840127167072964</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08706912598377414</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>50.77647685520515</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.644346596394513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>50.66186959618682</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.4993673237291745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1998246698852597</v>
+        <v>0.1870193117720831</v>
       </c>
       <c r="D19">
-        <v>0.09744855369719119</v>
+        <v>0.1063739299051036</v>
       </c>
       <c r="E19">
-        <v>12.32718948782406</v>
+        <v>12.32722323735499</v>
       </c>
       <c r="F19">
-        <v>0.3515410087926227</v>
+        <v>0.2999757761749606</v>
       </c>
       <c r="G19">
-        <v>0.2561532833942479</v>
+        <v>0.2345100830350333</v>
       </c>
       <c r="H19">
-        <v>0.4569874395956361</v>
+        <v>0.4415879911207341</v>
       </c>
       <c r="I19">
-        <v>0.1227672310013173</v>
+        <v>0.09664609447312777</v>
       </c>
       <c r="J19">
-        <v>0.1115366345077646</v>
+        <v>0.1180344292613711</v>
       </c>
       <c r="K19">
-        <v>0.2238919229676242</v>
+        <v>0.17315090401285</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09828580937550058</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09120711969674389</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>50.04475521008987</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7319068016084174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>49.93867823609287</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.578960231433939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1917817476394816</v>
+        <v>0.1749957210459527</v>
       </c>
       <c r="D20">
-        <v>0.08738415334617144</v>
+        <v>0.09775369449627647</v>
       </c>
       <c r="E20">
-        <v>9.962867556242628</v>
+        <v>9.974290213512006</v>
       </c>
       <c r="F20">
-        <v>0.4324843561428082</v>
+        <v>0.3675252038100041</v>
       </c>
       <c r="G20">
-        <v>0.327022595647648</v>
+        <v>0.3003963661496556</v>
       </c>
       <c r="H20">
-        <v>0.4563799896475658</v>
+        <v>0.4402112848921007</v>
       </c>
       <c r="I20">
-        <v>0.1240096425289892</v>
+        <v>0.09744106408698627</v>
       </c>
       <c r="J20">
-        <v>0.1492295056425803</v>
+        <v>0.1400060278157653</v>
       </c>
       <c r="K20">
-        <v>0.2834094464935077</v>
+        <v>0.2173441417532658</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1121718559656841</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1107829652716141</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>52.43728494710155</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9610350728121091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>52.3212507689156</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7639121832501985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2164507176283195</v>
+        <v>0.200291474870923</v>
       </c>
       <c r="D21">
-        <v>0.09494861408411026</v>
+        <v>0.1103857142848454</v>
       </c>
       <c r="E21">
-        <v>10.97679586149476</v>
+        <v>10.99665550378262</v>
       </c>
       <c r="F21">
-        <v>0.5233692916942587</v>
+        <v>0.4228758469263028</v>
       </c>
       <c r="G21">
-        <v>0.4109189037658609</v>
+        <v>0.4357927908487227</v>
       </c>
       <c r="H21">
-        <v>0.644365479253409</v>
+        <v>0.620575803801696</v>
       </c>
       <c r="I21">
-        <v>0.149920656850357</v>
+        <v>0.1162600987795592</v>
       </c>
       <c r="J21">
-        <v>0.1764459971760033</v>
+        <v>0.08398749848528553</v>
       </c>
       <c r="K21">
-        <v>0.3386768464078855</v>
+        <v>0.2418605656168538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1079614151721699</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1413555728178828</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>61.89965571129449</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.196586181518057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>61.70713492953138</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8879804267878058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2361561369056346</v>
+        <v>0.2208407798095848</v>
       </c>
       <c r="D22">
-        <v>0.099740650879653</v>
+        <v>0.1187296211096367</v>
       </c>
       <c r="E22">
-        <v>11.77404091852856</v>
+        <v>11.80098826203178</v>
       </c>
       <c r="F22">
-        <v>0.5903462985154704</v>
+        <v>0.463364195961951</v>
       </c>
       <c r="G22">
-        <v>0.4743814275007736</v>
+        <v>0.5418400569508606</v>
       </c>
       <c r="H22">
-        <v>0.8101919088055993</v>
+        <v>0.7790871975484635</v>
       </c>
       <c r="I22">
-        <v>0.1696633084953696</v>
+        <v>0.1304290779403487</v>
       </c>
       <c r="J22">
-        <v>0.1975713291494827</v>
+        <v>0.05328583260975961</v>
       </c>
       <c r="K22">
-        <v>0.3802075394635835</v>
+        <v>0.2604981521616665</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1054378603827075</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1641684879779497</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>69.12089583338246</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.375851778152708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>68.84239966853062</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9834096054511576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2270597706230149</v>
+        <v>0.2104795050098431</v>
       </c>
       <c r="D23">
-        <v>0.09696246591325774</v>
+        <v>0.113642389346353</v>
       </c>
       <c r="E23">
-        <v>11.34663853172171</v>
+        <v>11.36949951568565</v>
       </c>
       <c r="F23">
-        <v>0.5551770040487156</v>
+        <v>0.4443303149422348</v>
       </c>
       <c r="G23">
-        <v>0.4409445555671141</v>
+        <v>0.4780330700978936</v>
       </c>
       <c r="H23">
-        <v>0.7164655953650794</v>
+        <v>0.6896366672976271</v>
       </c>
       <c r="I23">
-        <v>0.1587735000206374</v>
+        <v>0.1225650923293911</v>
       </c>
       <c r="J23">
-        <v>0.1866044647835849</v>
+        <v>0.07477110737568182</v>
       </c>
       <c r="K23">
-        <v>0.3594351988643112</v>
+        <v>0.2531107258654544</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1077161693706827</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1529357544705192</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>65.13680679550515</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.281737944639389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>64.90991133633793</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9399291098716844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1927352550401054</v>
+        <v>0.1750012641522289</v>
       </c>
       <c r="D24">
-        <v>0.08591339601795056</v>
+        <v>0.09624765444561945</v>
       </c>
       <c r="E24">
-        <v>9.757685485843894</v>
+        <v>9.769662033771709</v>
       </c>
       <c r="F24">
-        <v>0.4381403016009315</v>
+        <v>0.3728157257887901</v>
       </c>
       <c r="G24">
-        <v>0.3322379495299685</v>
+        <v>0.3042753416159982</v>
       </c>
       <c r="H24">
-        <v>0.4526512415729904</v>
+        <v>0.4366259181936734</v>
       </c>
       <c r="I24">
-        <v>0.1231067238704364</v>
+        <v>0.09658829977332672</v>
       </c>
       <c r="J24">
-        <v>0.1525321720352792</v>
+        <v>0.14375878050528</v>
       </c>
       <c r="K24">
-        <v>0.2892868482394491</v>
+        <v>0.2224114340803922</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1143082269621019</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1122647662212195</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>52.28299292920684</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9789793722272009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>52.16815537762386</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.7803331891746694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1586309926918403</v>
+        <v>0.1439271033686822</v>
       </c>
       <c r="D25">
-        <v>0.07285174660150062</v>
+        <v>0.08061722688483997</v>
       </c>
       <c r="E25">
-        <v>8.066687686447864</v>
+        <v>8.072074724782652</v>
       </c>
       <c r="F25">
-        <v>0.3359158874640826</v>
+        <v>0.2933653976436332</v>
       </c>
       <c r="G25">
-        <v>0.2407186380291861</v>
+        <v>0.2158278353814183</v>
       </c>
       <c r="H25">
-        <v>0.2667532919736022</v>
+        <v>0.2572444076212381</v>
       </c>
       <c r="I25">
-        <v>0.09149344591087161</v>
+        <v>0.07280769874406534</v>
       </c>
       <c r="J25">
-        <v>0.1272395036113494</v>
+        <v>0.1426598635196612</v>
       </c>
       <c r="K25">
-        <v>0.2287585500735645</v>
+        <v>0.1852196140220954</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1180796758933447</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07165310605095598</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>40.77596335484793</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7309927092646689</v>
+        <v>40.71623268663808</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.6053252999686407</v>
       </c>
     </row>
   </sheetData>
